--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1864643.897337322</v>
+        <v>1863366.201183595</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5846492.3025359</v>
+        <v>5846492.302535897</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844072.23589188</v>
+        <v>1844072.235891879</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>22.26094028843003</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>198.8068169210229</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -791,7 +791,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>157.748445174862</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>92.4150904849842</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>21.50574063181006</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>205.7214085018009</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>38.53829267792504</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0022479912892</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>101.7360594059785</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>73.56047969208026</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>128.3240590578962</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.6062286406526</v>
       </c>
     </row>
     <row r="11">
@@ -1432,13 +1432,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>58.62749473013989</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>75.63210319534751</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>69.54273790579832</v>
       </c>
       <c r="I12" t="n">
-        <v>18.76931936631833</v>
+        <v>18.76931936631834</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5347441629355</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.7278001447847</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>113.8851577406371</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>82.48012494280177</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>183.7759855980831</v>
       </c>
       <c r="T13" t="n">
-        <v>236.9689133570197</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9678127247493</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.4054867069167</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>158.0253672856818</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>79.12408748182669</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1627,7 +1627,7 @@
         <v>306.8144097979609</v>
       </c>
       <c r="I14" t="n">
-        <v>81.78026870950282</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>131.7365645381919</v>
       </c>
       <c r="T14" t="n">
-        <v>219.5633916149905</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.4821924295248</v>
+        <v>234.5306496279743</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1706,7 +1706,7 @@
         <v>69.54273790579832</v>
       </c>
       <c r="I15" t="n">
-        <v>18.76931936631833</v>
+        <v>18.76931936631834</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>19.52001028275512</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.48012494280177</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>183.7759855980831</v>
@@ -1827,10 +1827,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.4054867069167</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>309.0417380475005</v>
       </c>
       <c r="G17" t="n">
-        <v>83.24961822055099</v>
+        <v>404.5448213465943</v>
       </c>
       <c r="H17" t="n">
         <v>306.8144097979609</v>
       </c>
       <c r="I17" t="n">
-        <v>81.78026870950282</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>131.7365645381919</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.5633916149905</v>
@@ -1943,7 +1943,7 @@
         <v>69.54273790579832</v>
       </c>
       <c r="I18" t="n">
-        <v>18.76931936631833</v>
+        <v>18.76931936631834</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.58062647465112</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -2016,10 +2016,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5347441629355</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.7278001447847</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>82.48012494280177</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>106.8211996790187</v>
       </c>
       <c r="T19" t="n">
-        <v>236.9689133570197</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>84.72814165381909</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2101,7 +2101,7 @@
         <v>306.8144097979609</v>
       </c>
       <c r="I20" t="n">
-        <v>81.78026870950282</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>131.7365645381919</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.5633916149905</v>
@@ -2143,7 +2143,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>272.1443279778354</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2180,7 +2180,7 @@
         <v>69.54273790579832</v>
       </c>
       <c r="I21" t="n">
-        <v>18.76931936631833</v>
+        <v>18.76931936631834</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>114.4562456116349</v>
       </c>
       <c r="H22" t="n">
-        <v>66.1037797265525</v>
+        <v>147.7278001447847</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.48012494280177</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.7759855980831</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>236.9689133570197</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9678127247493</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>404.5448213465943</v>
       </c>
       <c r="H23" t="n">
-        <v>306.8144097979609</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>81.78026870950282</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>30.00475302713946</v>
+        <v>131.7365645381919</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.5633916149905</v>
       </c>
       <c r="U23" t="n">
         <v>254.4821924295248</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>331.8583857888021</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2417,7 +2417,7 @@
         <v>69.54273790579832</v>
       </c>
       <c r="I24" t="n">
-        <v>18.76931936631833</v>
+        <v>18.76931936631834</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>147.7278001447847</v>
       </c>
       <c r="I25" t="n">
-        <v>113.8851577406371</v>
+        <v>1.105939369529656</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>70.99676722697603</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.7759855980831</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>391.6381745397624</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2572,7 +2572,7 @@
         <v>404.5448213465943</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>306.8144097979609</v>
       </c>
       <c r="I26" t="n">
         <v>81.78026870950282</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>131.7365645381919</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.5633916149905</v>
+        <v>30.00475302713946</v>
       </c>
       <c r="U26" t="n">
         <v>254.4821924295248</v>
@@ -2654,7 +2654,7 @@
         <v>69.54273790579832</v>
       </c>
       <c r="I27" t="n">
-        <v>18.76931936631833</v>
+        <v>18.76931936631834</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5347441629355</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.7278001447847</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>113.8851577406371</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>70.99676722697603</v>
+        <v>84.35903613068074</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9678127247493</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2809,10 +2809,10 @@
         <v>404.5448213465943</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>306.8144097979609</v>
       </c>
       <c r="I29" t="n">
-        <v>67.29947538142045</v>
+        <v>81.78026870950282</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>58.62749473013989</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -2891,7 +2891,7 @@
         <v>69.54273790579832</v>
       </c>
       <c r="I30" t="n">
-        <v>18.76931936631833</v>
+        <v>18.76931936631834</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>148.8898925407194</v>
+        <v>236.9689133570197</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9678127247493</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>118.5370103835342</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3040,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>95.52490479980682</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.5448213465943</v>
@@ -3049,7 +3049,7 @@
         <v>306.8144097979609</v>
       </c>
       <c r="I32" t="n">
-        <v>81.78026870950282</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>131.7365645381919</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.5633916149905</v>
+        <v>111.7850217366413</v>
       </c>
       <c r="U32" t="n">
         <v>254.4821924295248</v>
@@ -3128,7 +3128,7 @@
         <v>69.54273790579832</v>
       </c>
       <c r="I33" t="n">
-        <v>18.76931936631833</v>
+        <v>18.76931936631834</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>33.21283210376481</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>82.48012494280177</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.7759855980831</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.9689133570197</v>
@@ -3246,13 +3246,13 @@
         <v>279.9678127247493</v>
       </c>
       <c r="V34" t="n">
-        <v>206.6205929774577</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3280,7 +3280,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>83.24961822055099</v>
+        <v>83.24961822055189</v>
       </c>
       <c r="H35" t="n">
         <v>306.8144097979609</v>
@@ -3365,7 +3365,7 @@
         <v>69.54273790579832</v>
       </c>
       <c r="I36" t="n">
-        <v>18.76931936631833</v>
+        <v>18.76931936631834</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>33.2128321037648</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>67.50578847659767</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>82.48012494280177</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.7759855980831</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>236.9689133570197</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>210.8606520200194</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3520,10 +3520,10 @@
         <v>404.5448213465943</v>
       </c>
       <c r="H38" t="n">
-        <v>306.8144097979609</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>81.78026870950282</v>
+        <v>67.29947538142133</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>131.7365645381919</v>
       </c>
       <c r="T38" t="n">
         <v>219.5633916149905</v>
@@ -3602,7 +3602,7 @@
         <v>69.54273790579832</v>
       </c>
       <c r="I39" t="n">
-        <v>18.76931936631833</v>
+        <v>18.76931936631834</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>52.93283708001891</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -3672,13 +3672,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5347441629355</v>
       </c>
       <c r="H40" t="n">
-        <v>147.7278001447847</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>13.36710991459298</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>236.9689133570197</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>84.72814165381909</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>131.7365645381919</v>
+        <v>64.92355384167324</v>
       </c>
       <c r="T41" t="n">
         <v>219.5633916149905</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4821924295248</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5347441629355</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.7278001447847</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>113.8851577406371</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>82.48012494280177</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.7759855980831</v>
+        <v>33.21283210376529</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.9689133570197</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9678127247493</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>205.9533584947598</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>88.90161020222885</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>306.8144097979609</v>
       </c>
       <c r="I44" t="n">
-        <v>81.78026870950282</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>131.7365645381919</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.5633916149905</v>
+        <v>111.7850217366413</v>
       </c>
       <c r="U44" t="n">
         <v>254.4821924295248</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>33.21283210376527</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>113.8851577406371</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>204.3871735139836</v>
+        <v>236.9689133570197</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9678127247493</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1476.106720938044</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C2" t="n">
-        <v>1470.022534291718</v>
+        <v>564.5584777348398</v>
       </c>
       <c r="D2" t="n">
-        <v>1469.599008425183</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E2" t="n">
-        <v>1268.784041838291</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4336,16 +4336,16 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636817</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N2" t="n">
-        <v>1209.69369432892</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1866.047797426961</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W2" t="n">
-        <v>1482.28749656213</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X2" t="n">
-        <v>1482.28749656213</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="Y2" t="n">
-        <v>1482.28749656213</v>
+        <v>997.1688666927112</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922355</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M3" t="n">
         <v>675.1644281008383</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.7487024651007</v>
+        <v>582.0477248881082</v>
       </c>
       <c r="C4" t="n">
-        <v>682.7487024651007</v>
+        <v>410.9543524498247</v>
       </c>
       <c r="D4" t="n">
-        <v>523.2540577880108</v>
+        <v>251.4597077727347</v>
       </c>
       <c r="E4" t="n">
-        <v>523.2540577880108</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>358.622931898602</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>1203.093116471976</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>929.2073714114977</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="W4" t="n">
-        <v>929.2073714114977</v>
+        <v>769.7474312821525</v>
       </c>
       <c r="X4" t="n">
-        <v>907.484401076336</v>
+        <v>769.7474312821525</v>
       </c>
       <c r="Y4" t="n">
-        <v>682.7487024651007</v>
+        <v>769.7474312821525</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1331.299278140587</v>
+        <v>761.4520589023289</v>
       </c>
       <c r="C5" t="n">
-        <v>921.1746874538575</v>
+        <v>755.367872256003</v>
       </c>
       <c r="D5" t="n">
-        <v>920.751161587322</v>
+        <v>754.9443463894676</v>
       </c>
       <c r="E5" t="n">
-        <v>506.4109461042187</v>
+        <v>744.6445349467683</v>
       </c>
       <c r="F5" t="n">
-        <v>489.4209380983103</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>80.69265399114249</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>80.69265399114249</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1738.416726816583</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>1738.416726816583</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.416726816583</v>
+        <v>1168.569507578324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1337.480053764673</v>
+        <v>767.6328345264143</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M6" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>365.8908561961008</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
         <v>41.76508562960205</v>
@@ -4764,13 +4764,13 @@
         <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>503.2668642681101</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>570.0645900620057</v>
+        <v>154.5540124983197</v>
       </c>
       <c r="C8" t="n">
-        <v>563.9804034156798</v>
+        <v>148.4698258519939</v>
       </c>
       <c r="D8" t="n">
-        <v>159.5164735087403</v>
+        <v>148.0462999854585</v>
       </c>
       <c r="E8" t="n">
-        <v>149.2166620660411</v>
+        <v>137.7464885427593</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>120.7564805368509</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>116.0686004700872</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>116.0686004700872</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>1571.411346813777</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N8" t="n">
-        <v>2088.254281480102</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V8" t="n">
-        <v>1380.929167557543</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W8" t="n">
-        <v>1380.929167557543</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X8" t="n">
-        <v>980.2857697264951</v>
+        <v>561.671461174315</v>
       </c>
       <c r="Y8" t="n">
-        <v>980.2857697264951</v>
+        <v>160.7347881224051</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="L9" t="n">
-        <v>41.76508562960205</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962253</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>503.2668642681101</v>
+        <v>697.8950437660649</v>
       </c>
       <c r="C10" t="n">
-        <v>373.6466025934674</v>
+        <v>526.8016713277814</v>
       </c>
       <c r="D10" t="n">
-        <v>373.6466025934674</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E10" t="n">
-        <v>373.6466025934674</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F10" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W10" t="n">
-        <v>503.2668642681101</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X10" t="n">
-        <v>503.2668642681101</v>
+        <v>1058.934375049657</v>
       </c>
       <c r="Y10" t="n">
-        <v>503.2668642681101</v>
+        <v>885.5947501601092</v>
       </c>
     </row>
     <row r="11">
@@ -5080,10 +5080,10 @@
         <v>3817.720280171116</v>
       </c>
       <c r="W11" t="n">
-        <v>3758.50058852451</v>
+        <v>3433.959979306284</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.857190693463</v>
+        <v>3033.316581475237</v>
       </c>
       <c r="Y11" t="n">
         <v>2956.920517641553</v>
@@ -5120,28 +5120,28 @@
         <v>95.58917990038375</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58917990038375</v>
+        <v>293.2153347787756</v>
       </c>
       <c r="K12" t="n">
-        <v>559.6221279290306</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="L12" t="n">
-        <v>1231.772102160961</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="M12" t="n">
-        <v>2087.657784402874</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="N12" t="n">
-        <v>2138.556234149726</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="O12" t="n">
-        <v>2138.556234149726</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="P12" t="n">
-        <v>2138.556234149726</v>
+        <v>1749.485881694974</v>
       </c>
       <c r="Q12" t="n">
-        <v>2138.556234149726</v>
+        <v>2105.833582304766</v>
       </c>
       <c r="R12" t="n">
         <v>2138.556234149726</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.58917990038375</v>
+        <v>527.0515052017546</v>
       </c>
       <c r="C13" t="n">
-        <v>95.58917990038375</v>
+        <v>527.0515052017546</v>
       </c>
       <c r="D13" t="n">
-        <v>95.58917990038375</v>
+        <v>527.0515052017546</v>
       </c>
       <c r="E13" t="n">
-        <v>95.58917990038375</v>
+        <v>527.0515052017546</v>
       </c>
       <c r="F13" t="n">
-        <v>95.58917990038375</v>
+        <v>527.0515052017546</v>
       </c>
       <c r="G13" t="n">
-        <v>95.58917990038375</v>
+        <v>359.8446929159612</v>
       </c>
       <c r="H13" t="n">
-        <v>95.58917990038375</v>
+        <v>210.6246927697141</v>
       </c>
       <c r="I13" t="n">
         <v>95.58917990038375</v>
@@ -5202,49 +5202,49 @@
         <v>112.6914373589469</v>
       </c>
       <c r="K13" t="n">
-        <v>272.2060730305029</v>
+        <v>272.2060730305028</v>
       </c>
       <c r="L13" t="n">
         <v>538.4532190228597</v>
       </c>
       <c r="M13" t="n">
-        <v>834.4125083248624</v>
+        <v>834.4125083248623</v>
       </c>
       <c r="N13" t="n">
-        <v>1121.787325907757</v>
+        <v>1121.787325907756</v>
       </c>
       <c r="O13" t="n">
         <v>1387.385022618894</v>
       </c>
       <c r="P13" t="n">
-        <v>1598.226233209487</v>
+        <v>1598.226233209486</v>
       </c>
       <c r="Q13" t="n">
         <v>1667.330774633372</v>
       </c>
       <c r="R13" t="n">
-        <v>1584.01751711539</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="S13" t="n">
-        <v>1398.385208430458</v>
+        <v>1481.698465948439</v>
       </c>
       <c r="T13" t="n">
-        <v>1159.022669685994</v>
+        <v>1481.698465948439</v>
       </c>
       <c r="U13" t="n">
-        <v>876.2268992569539</v>
+        <v>1198.902695519399</v>
       </c>
       <c r="V13" t="n">
-        <v>602.3411541964758</v>
+        <v>925.0169504589214</v>
       </c>
       <c r="W13" t="n">
-        <v>323.2714897053502</v>
+        <v>925.0169504589214</v>
       </c>
       <c r="X13" t="n">
-        <v>95.58917990038375</v>
+        <v>686.6730883186049</v>
       </c>
       <c r="Y13" t="n">
-        <v>95.58917990038375</v>
+        <v>527.0515052017546</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2222.158728758837</v>
+        <v>2464.093005947262</v>
       </c>
       <c r="C14" t="n">
-        <v>1812.034138072107</v>
+        <v>2053.968415260532</v>
       </c>
       <c r="D14" t="n">
-        <v>1732.110817383394</v>
+        <v>1649.504485353593</v>
       </c>
       <c r="E14" t="n">
-        <v>1317.77060190029</v>
+        <v>1235.16426987049</v>
       </c>
       <c r="F14" t="n">
-        <v>896.7401898539779</v>
+        <v>814.1338578241771</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1090571806502</v>
+        <v>405.5027251508494</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1955119301846</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="I14" t="n">
         <v>95.58917990038375</v>
@@ -5308,22 +5308,22 @@
         <v>4646.391758111923</v>
       </c>
       <c r="T14" t="n">
-        <v>4424.610554460418</v>
+        <v>4646.391758111923</v>
       </c>
       <c r="U14" t="n">
-        <v>4167.557834834635</v>
+        <v>4409.49211202306</v>
       </c>
       <c r="V14" t="n">
-        <v>3817.720280171116</v>
+        <v>4059.654557359541</v>
       </c>
       <c r="W14" t="n">
-        <v>3433.959979306284</v>
+        <v>3675.894256494709</v>
       </c>
       <c r="X14" t="n">
-        <v>3033.316581475237</v>
+        <v>3275.250858663662</v>
       </c>
       <c r="Y14" t="n">
-        <v>2632.379908423327</v>
+        <v>2874.314185611752</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>293.2153347787756</v>
       </c>
       <c r="K15" t="n">
-        <v>293.2153347787756</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="L15" t="n">
-        <v>293.2153347787756</v>
+        <v>1210.774154048318</v>
       </c>
       <c r="M15" t="n">
-        <v>818.3207186695591</v>
+        <v>1210.774154048318</v>
       </c>
       <c r="N15" t="n">
-        <v>818.3207186695591</v>
+        <v>1210.774154048318</v>
       </c>
       <c r="O15" t="n">
-        <v>1534.399202813149</v>
+        <v>1210.774154048318</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.833582304766</v>
+        <v>1782.208533539934</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.833582304766</v>
+        <v>2138.556234149726</v>
       </c>
       <c r="R15" t="n">
         <v>2138.556234149726</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.58917990038375</v>
+        <v>427.5933674703477</v>
       </c>
       <c r="C16" t="n">
-        <v>95.58917990038375</v>
+        <v>256.4999950320642</v>
       </c>
       <c r="D16" t="n">
-        <v>95.58917990038375</v>
+        <v>256.4999950320642</v>
       </c>
       <c r="E16" t="n">
         <v>95.58917990038375</v>
@@ -5439,13 +5439,13 @@
         <v>112.6914373589469</v>
       </c>
       <c r="K16" t="n">
-        <v>272.2060730305029</v>
+        <v>272.2060730305028</v>
       </c>
       <c r="L16" t="n">
         <v>538.4532190228597</v>
       </c>
       <c r="M16" t="n">
-        <v>834.4125083248624</v>
+        <v>834.4125083248623</v>
       </c>
       <c r="N16" t="n">
         <v>1121.787325907757</v>
@@ -5460,28 +5460,28 @@
         <v>1667.330774633372</v>
       </c>
       <c r="R16" t="n">
-        <v>1584.01751711539</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="S16" t="n">
-        <v>1398.385208430458</v>
+        <v>1481.698465948439</v>
       </c>
       <c r="T16" t="n">
-        <v>1159.022669685994</v>
+        <v>1242.335927203975</v>
       </c>
       <c r="U16" t="n">
-        <v>876.2268992569539</v>
+        <v>959.5401567749354</v>
       </c>
       <c r="V16" t="n">
-        <v>602.3411541964758</v>
+        <v>685.6544117144574</v>
       </c>
       <c r="W16" t="n">
-        <v>323.2714897053502</v>
+        <v>685.6544117144574</v>
       </c>
       <c r="X16" t="n">
-        <v>95.58917990038375</v>
+        <v>447.3105495741408</v>
       </c>
       <c r="Y16" t="n">
-        <v>95.58917990038375</v>
+        <v>447.3105495741408</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2222.158728758837</v>
+        <v>2355.225965666102</v>
       </c>
       <c r="C17" t="n">
-        <v>1812.034138072107</v>
+        <v>1945.101374979372</v>
       </c>
       <c r="D17" t="n">
-        <v>1407.570208165168</v>
+        <v>1540.637445072432</v>
       </c>
       <c r="E17" t="n">
-        <v>993.2299926820647</v>
+        <v>1126.297229589329</v>
       </c>
       <c r="F17" t="n">
-        <v>572.1995806357522</v>
+        <v>814.1338578241771</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1090571806502</v>
+        <v>405.5027251508494</v>
       </c>
       <c r="H17" t="n">
-        <v>178.1955119301846</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="I17" t="n">
         <v>95.58917990038375</v>
@@ -5518,16 +5518,16 @@
         <v>357.8561703065293</v>
       </c>
       <c r="K17" t="n">
-        <v>908.1277733865479</v>
+        <v>908.1277733865477</v>
       </c>
       <c r="L17" t="n">
         <v>1635.745306719105</v>
       </c>
       <c r="M17" t="n">
-        <v>2428.783366478185</v>
+        <v>2428.783366478184</v>
       </c>
       <c r="N17" t="n">
-        <v>3198.95439036845</v>
+        <v>3198.954390368449</v>
       </c>
       <c r="O17" t="n">
         <v>3858.628428853401</v>
@@ -5542,25 +5542,25 @@
         <v>4779.458995019188</v>
       </c>
       <c r="S17" t="n">
-        <v>4646.391758111923</v>
+        <v>4779.458995019188</v>
       </c>
       <c r="T17" t="n">
-        <v>4424.610554460418</v>
+        <v>4557.677791367682</v>
       </c>
       <c r="U17" t="n">
-        <v>4167.557834834635</v>
+        <v>4300.6250717419</v>
       </c>
       <c r="V17" t="n">
-        <v>3817.720280171116</v>
+        <v>3950.78751707838</v>
       </c>
       <c r="W17" t="n">
-        <v>3433.959979306284</v>
+        <v>3567.027216213549</v>
       </c>
       <c r="X17" t="n">
-        <v>3033.316581475237</v>
+        <v>3166.383818382501</v>
       </c>
       <c r="Y17" t="n">
-        <v>2632.379908423327</v>
+        <v>2765.447145330591</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>95.58917990038375</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58917990038375</v>
+        <v>293.2153347787756</v>
       </c>
       <c r="K18" t="n">
-        <v>559.6221279290306</v>
+        <v>395.7622059766346</v>
       </c>
       <c r="L18" t="n">
-        <v>559.6221279290306</v>
+        <v>395.7622059766346</v>
       </c>
       <c r="M18" t="n">
-        <v>1415.507810170943</v>
+        <v>1251.647888218547</v>
       </c>
       <c r="N18" t="n">
-        <v>1415.507810170943</v>
+        <v>2138.556234149726</v>
       </c>
       <c r="O18" t="n">
-        <v>1567.121854658109</v>
+        <v>2138.556234149726</v>
       </c>
       <c r="P18" t="n">
         <v>2138.556234149726</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>751.7191380368465</v>
+        <v>908.6513057917971</v>
       </c>
       <c r="C19" t="n">
-        <v>580.625765598563</v>
+        <v>737.5579333535136</v>
       </c>
       <c r="D19" t="n">
-        <v>421.131120921473</v>
+        <v>737.5579333535136</v>
       </c>
       <c r="E19" t="n">
-        <v>260.2203057897925</v>
+        <v>576.647118221833</v>
       </c>
       <c r="F19" t="n">
-        <v>95.58917990038375</v>
+        <v>412.0159923324243</v>
       </c>
       <c r="G19" t="n">
-        <v>95.58917990038375</v>
+        <v>244.8091800466309</v>
       </c>
       <c r="H19" t="n">
         <v>95.58917990038375</v>
@@ -5676,49 +5676,49 @@
         <v>112.6914373589469</v>
       </c>
       <c r="K19" t="n">
-        <v>272.2060730305029</v>
+        <v>272.2060730305028</v>
       </c>
       <c r="L19" t="n">
         <v>538.4532190228597</v>
       </c>
       <c r="M19" t="n">
-        <v>834.4125083248624</v>
+        <v>834.4125083248623</v>
       </c>
       <c r="N19" t="n">
-        <v>1121.787325907757</v>
+        <v>1121.787325907756</v>
       </c>
       <c r="O19" t="n">
         <v>1387.385022618894</v>
       </c>
       <c r="P19" t="n">
-        <v>1598.226233209487</v>
+        <v>1598.226233209486</v>
       </c>
       <c r="Q19" t="n">
         <v>1667.330774633372</v>
       </c>
       <c r="R19" t="n">
-        <v>1584.01751711539</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="S19" t="n">
-        <v>1584.01751711539</v>
+        <v>1559.430572937393</v>
       </c>
       <c r="T19" t="n">
-        <v>1344.654978370926</v>
+        <v>1559.430572937393</v>
       </c>
       <c r="U19" t="n">
-        <v>1344.654978370926</v>
+        <v>1559.430572937393</v>
       </c>
       <c r="V19" t="n">
-        <v>1070.769233310448</v>
+        <v>1559.430572937393</v>
       </c>
       <c r="W19" t="n">
-        <v>791.6995688193224</v>
+        <v>1559.430572937393</v>
       </c>
       <c r="X19" t="n">
-        <v>791.6995688193224</v>
+        <v>1321.086710797077</v>
       </c>
       <c r="Y19" t="n">
-        <v>791.6995688193224</v>
+        <v>1096.351012185841</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2222.158728758837</v>
+        <v>2464.093005947262</v>
       </c>
       <c r="C20" t="n">
-        <v>2136.574747290333</v>
+        <v>2053.968415260532</v>
       </c>
       <c r="D20" t="n">
-        <v>1732.110817383394</v>
+        <v>1649.504485353593</v>
       </c>
       <c r="E20" t="n">
-        <v>1317.77060190029</v>
+        <v>1235.16426987049</v>
       </c>
       <c r="F20" t="n">
-        <v>896.7401898539779</v>
+        <v>814.1338578241771</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1090571806502</v>
+        <v>405.5027251508494</v>
       </c>
       <c r="H20" t="n">
-        <v>178.1955119301846</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="I20" t="n">
-        <v>95.58917990038375</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="J20" t="n">
-        <v>357.8561703065288</v>
+        <v>357.8561703065297</v>
       </c>
       <c r="K20" t="n">
         <v>908.1277733865477</v>
@@ -5761,10 +5761,10 @@
         <v>1635.745306719105</v>
       </c>
       <c r="M20" t="n">
-        <v>2428.783366478184</v>
+        <v>2428.783366478185</v>
       </c>
       <c r="N20" t="n">
-        <v>3198.954390368449</v>
+        <v>3198.95439036845</v>
       </c>
       <c r="O20" t="n">
         <v>3858.628428853401</v>
@@ -5773,31 +5773,31 @@
         <v>4401.477611495324</v>
       </c>
       <c r="Q20" t="n">
-        <v>4732.921104079899</v>
+        <v>4732.9211040799</v>
       </c>
       <c r="R20" t="n">
         <v>4779.458995019188</v>
       </c>
       <c r="S20" t="n">
-        <v>4646.391758111923</v>
+        <v>4779.458995019188</v>
       </c>
       <c r="T20" t="n">
-        <v>4424.610554460418</v>
+        <v>4557.677791367683</v>
       </c>
       <c r="U20" t="n">
-        <v>4167.557834834635</v>
+        <v>4300.625071741901</v>
       </c>
       <c r="V20" t="n">
-        <v>3817.720280171116</v>
+        <v>3950.787517078381</v>
       </c>
       <c r="W20" t="n">
-        <v>3433.959979306284</v>
+        <v>3675.894256494709</v>
       </c>
       <c r="X20" t="n">
-        <v>3033.316581475237</v>
+        <v>3275.250858663662</v>
       </c>
       <c r="Y20" t="n">
-        <v>2632.379908423327</v>
+        <v>2874.314185611752</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3412.97909596728</v>
+        <v>772.0763350978184</v>
       </c>
       <c r="C21" t="n">
-        <v>3278.984024716226</v>
+        <v>638.081263846764</v>
       </c>
       <c r="D21" t="n">
-        <v>3162.086866935618</v>
+        <v>521.1841060661565</v>
       </c>
       <c r="E21" t="n">
-        <v>3041.594050927946</v>
+        <v>400.6912900584845</v>
       </c>
       <c r="F21" t="n">
-        <v>2932.634171110451</v>
+        <v>291.731410240989</v>
       </c>
       <c r="G21" t="n">
-        <v>2825.696039024509</v>
+        <v>184.7932781550471</v>
       </c>
       <c r="H21" t="n">
-        <v>2755.450849220672</v>
+        <v>114.5480883512104</v>
       </c>
       <c r="I21" t="n">
-        <v>2736.491940769846</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="J21" t="n">
-        <v>2736.491940769846</v>
+        <v>293.2153347787756</v>
       </c>
       <c r="K21" t="n">
-        <v>3200.524888798493</v>
+        <v>293.2153347787756</v>
       </c>
       <c r="L21" t="n">
-        <v>3872.674863030423</v>
+        <v>965.3653090107061</v>
       </c>
       <c r="M21" t="n">
-        <v>4030.657859030637</v>
+        <v>965.3653090107061</v>
       </c>
       <c r="N21" t="n">
-        <v>4030.657859030637</v>
+        <v>1422.477750006136</v>
       </c>
       <c r="O21" t="n">
-        <v>4746.736343174227</v>
+        <v>2138.556234149726</v>
       </c>
       <c r="P21" t="n">
-        <v>4746.736343174227</v>
+        <v>2138.556234149726</v>
       </c>
       <c r="Q21" t="n">
-        <v>4746.736343174227</v>
+        <v>2138.556234149726</v>
       </c>
       <c r="R21" t="n">
-        <v>4779.458995019188</v>
+        <v>2138.556234149726</v>
       </c>
       <c r="S21" t="n">
-        <v>4672.434501974774</v>
+        <v>2031.531741105313</v>
       </c>
       <c r="T21" t="n">
-        <v>4513.302156456265</v>
+        <v>1872.399395586804</v>
       </c>
       <c r="U21" t="n">
-        <v>4315.954765370781</v>
+        <v>1675.05200450132</v>
       </c>
       <c r="V21" t="n">
-        <v>4102.243238363815</v>
+        <v>1461.340477494354</v>
       </c>
       <c r="W21" t="n">
-        <v>3889.010070100144</v>
+        <v>1248.107309230682</v>
       </c>
       <c r="X21" t="n">
-        <v>3712.684088239037</v>
+        <v>1071.781327369575</v>
       </c>
       <c r="Y21" t="n">
-        <v>3553.282128602867</v>
+        <v>912.379367733405</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3435.399710091166</v>
+        <v>1016.551507487775</v>
       </c>
       <c r="C22" t="n">
-        <v>3435.399710091166</v>
+        <v>845.4581350494918</v>
       </c>
       <c r="D22" t="n">
-        <v>3435.399710091166</v>
+        <v>685.9634903724018</v>
       </c>
       <c r="E22" t="n">
-        <v>3274.488894959485</v>
+        <v>525.0526752407213</v>
       </c>
       <c r="F22" t="n">
-        <v>3274.488894959485</v>
+        <v>360.4215493513126</v>
       </c>
       <c r="G22" t="n">
-        <v>3274.488894959485</v>
+        <v>244.8091800466309</v>
       </c>
       <c r="H22" t="n">
-        <v>3207.7174002862</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="I22" t="n">
-        <v>3207.7174002862</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="J22" t="n">
-        <v>3224.819657744763</v>
+        <v>112.6914373589469</v>
       </c>
       <c r="K22" t="n">
-        <v>3384.334293416319</v>
+        <v>272.2060730305029</v>
       </c>
       <c r="L22" t="n">
-        <v>3650.581439408676</v>
+        <v>538.4532190228597</v>
       </c>
       <c r="M22" t="n">
-        <v>3946.540728710678</v>
+        <v>834.4125083248623</v>
       </c>
       <c r="N22" t="n">
-        <v>4233.915546293572</v>
+        <v>1121.787325907756</v>
       </c>
       <c r="O22" t="n">
-        <v>4499.51324300471</v>
+        <v>1387.385022618894</v>
       </c>
       <c r="P22" t="n">
-        <v>4710.354453595302</v>
+        <v>1598.226233209486</v>
       </c>
       <c r="Q22" t="n">
-        <v>4779.458995019188</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="R22" t="n">
-        <v>4696.145737501206</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="S22" t="n">
-        <v>4510.513428816274</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="T22" t="n">
-        <v>4271.150890071809</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="U22" t="n">
-        <v>3988.355119642769</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="V22" t="n">
-        <v>3714.469374582291</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="W22" t="n">
-        <v>3435.399710091166</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="X22" t="n">
-        <v>3435.399710091166</v>
+        <v>1428.986912493055</v>
       </c>
       <c r="Y22" t="n">
-        <v>3435.399710091166</v>
+        <v>1204.25121388182</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2546.699337977063</v>
+        <v>2236.785792726597</v>
       </c>
       <c r="C23" t="n">
-        <v>2136.574747290333</v>
+        <v>1826.661202039867</v>
       </c>
       <c r="D23" t="n">
-        <v>1732.110817383394</v>
+        <v>1422.197272132928</v>
       </c>
       <c r="E23" t="n">
-        <v>1317.77060190029</v>
+        <v>1007.857056649825</v>
       </c>
       <c r="F23" t="n">
-        <v>896.7401898539779</v>
+        <v>586.8266446035122</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1090571806502</v>
+        <v>178.1955119301846</v>
       </c>
       <c r="H23" t="n">
         <v>178.1955119301846</v>
       </c>
       <c r="I23" t="n">
-        <v>95.58917990038377</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="J23" t="n">
-        <v>357.8561703065297</v>
+        <v>357.8561703065293</v>
       </c>
       <c r="K23" t="n">
-        <v>908.1277733865486</v>
+        <v>908.1277733865479</v>
       </c>
       <c r="L23" t="n">
-        <v>1635.745306719106</v>
+        <v>1635.745306719105</v>
       </c>
       <c r="M23" t="n">
-        <v>2428.783366478186</v>
+        <v>2428.783366478185</v>
       </c>
       <c r="N23" t="n">
-        <v>3198.954390368451</v>
+        <v>3198.95439036845</v>
       </c>
       <c r="O23" t="n">
-        <v>3858.628428853402</v>
+        <v>3858.628428853401</v>
       </c>
       <c r="P23" t="n">
-        <v>4401.477611495325</v>
+        <v>4401.477611495324</v>
       </c>
       <c r="Q23" t="n">
-        <v>4732.9211040799</v>
+        <v>4732.921104079899</v>
       </c>
       <c r="R23" t="n">
         <v>4779.458995019188</v>
       </c>
       <c r="S23" t="n">
-        <v>4749.151163678644</v>
+        <v>4646.391758111923</v>
       </c>
       <c r="T23" t="n">
-        <v>4749.151163678644</v>
+        <v>4424.610554460418</v>
       </c>
       <c r="U23" t="n">
-        <v>4492.098444052861</v>
+        <v>4167.557834834635</v>
       </c>
       <c r="V23" t="n">
-        <v>4142.260889389341</v>
+        <v>3832.347344138876</v>
       </c>
       <c r="W23" t="n">
-        <v>3758.50058852451</v>
+        <v>3448.587043274044</v>
       </c>
       <c r="X23" t="n">
-        <v>3357.857190693463</v>
+        <v>3047.943645442997</v>
       </c>
       <c r="Y23" t="n">
-        <v>2956.920517641553</v>
+        <v>2647.006972391086</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.5480883512104</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58917990038377</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58917990038377</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58917990038377</v>
+        <v>559.6221279290306</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58917990038377</v>
+        <v>1231.772102160961</v>
       </c>
       <c r="M24" t="n">
-        <v>951.4748621422962</v>
+        <v>1231.772102160961</v>
       </c>
       <c r="N24" t="n">
-        <v>1838.383208073475</v>
+        <v>1231.772102160961</v>
       </c>
       <c r="O24" t="n">
-        <v>2138.556234149726</v>
+        <v>1231.772102160961</v>
       </c>
       <c r="P24" t="n">
-        <v>2138.556234149726</v>
+        <v>1782.208533539934</v>
       </c>
       <c r="Q24" t="n">
         <v>2138.556234149726</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1183.181463338218</v>
+        <v>1069.263060943159</v>
       </c>
       <c r="C25" t="n">
-        <v>1012.088090899934</v>
+        <v>898.1696885048759</v>
       </c>
       <c r="D25" t="n">
-        <v>852.593446222844</v>
+        <v>738.6750438277859</v>
       </c>
       <c r="E25" t="n">
-        <v>691.6826310911634</v>
+        <v>577.7642286961054</v>
       </c>
       <c r="F25" t="n">
-        <v>527.0515052017547</v>
+        <v>413.1331028066967</v>
       </c>
       <c r="G25" t="n">
-        <v>359.8446929159613</v>
+        <v>245.9262905209033</v>
       </c>
       <c r="H25" t="n">
-        <v>210.6246927697141</v>
+        <v>96.70629037465613</v>
       </c>
       <c r="I25" t="n">
-        <v>95.58917990038377</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="J25" t="n">
         <v>112.6914373589469</v>
       </c>
       <c r="K25" t="n">
-        <v>272.2060730305029</v>
+        <v>272.2060730305028</v>
       </c>
       <c r="L25" t="n">
         <v>538.4532190228597</v>
       </c>
       <c r="M25" t="n">
-        <v>834.4125083248624</v>
+        <v>834.4125083248623</v>
       </c>
       <c r="N25" t="n">
-        <v>1121.787325907757</v>
+        <v>1121.787325907756</v>
       </c>
       <c r="O25" t="n">
         <v>1387.385022618894</v>
       </c>
       <c r="P25" t="n">
-        <v>1598.226233209487</v>
+        <v>1598.226233209486</v>
       </c>
       <c r="Q25" t="n">
         <v>1667.330774633372</v>
       </c>
       <c r="R25" t="n">
-        <v>1595.616868343497</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="S25" t="n">
-        <v>1595.616868343497</v>
+        <v>1481.698465948439</v>
       </c>
       <c r="T25" t="n">
-        <v>1595.616868343497</v>
+        <v>1481.698465948439</v>
       </c>
       <c r="U25" t="n">
-        <v>1595.616868343497</v>
+        <v>1481.698465948439</v>
       </c>
       <c r="V25" t="n">
-        <v>1595.616868343497</v>
+        <v>1481.698465948439</v>
       </c>
       <c r="W25" t="n">
-        <v>1595.616868343497</v>
+        <v>1481.698465948439</v>
       </c>
       <c r="X25" t="n">
-        <v>1595.616868343497</v>
+        <v>1481.698465948439</v>
       </c>
       <c r="Y25" t="n">
-        <v>1370.881169732262</v>
+        <v>1256.962767337204</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2236.785792726597</v>
+        <v>2546.699337977063</v>
       </c>
       <c r="C26" t="n">
-        <v>1826.661202039867</v>
+        <v>2136.574747290333</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.197272132928</v>
+        <v>1732.110817383394</v>
       </c>
       <c r="E26" t="n">
-        <v>1007.857056649825</v>
+        <v>1317.77060190029</v>
       </c>
       <c r="F26" t="n">
-        <v>586.8266446035122</v>
+        <v>896.7401898539779</v>
       </c>
       <c r="G26" t="n">
-        <v>178.1955119301846</v>
+        <v>488.1090571806502</v>
       </c>
       <c r="H26" t="n">
         <v>178.1955119301846</v>
       </c>
       <c r="I26" t="n">
-        <v>95.58917990038375</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="J26" t="n">
-        <v>357.8561703065293</v>
+        <v>357.8561703065297</v>
       </c>
       <c r="K26" t="n">
-        <v>908.1277733865479</v>
+        <v>908.1277733865477</v>
       </c>
       <c r="L26" t="n">
         <v>1635.745306719105</v>
@@ -6247,31 +6247,31 @@
         <v>4401.477611495324</v>
       </c>
       <c r="Q26" t="n">
-        <v>4732.921104079899</v>
+        <v>4732.9211040799</v>
       </c>
       <c r="R26" t="n">
         <v>4779.458995019188</v>
       </c>
       <c r="S26" t="n">
-        <v>4646.391758111923</v>
+        <v>4779.458995019188</v>
       </c>
       <c r="T26" t="n">
-        <v>4424.610554460418</v>
+        <v>4749.151163678644</v>
       </c>
       <c r="U26" t="n">
-        <v>4167.557834834635</v>
+        <v>4492.098444052861</v>
       </c>
       <c r="V26" t="n">
-        <v>3817.720280171116</v>
+        <v>4142.260889389341</v>
       </c>
       <c r="W26" t="n">
-        <v>3433.959979306284</v>
+        <v>3758.50058852451</v>
       </c>
       <c r="X26" t="n">
-        <v>3033.316581475237</v>
+        <v>3357.857190693463</v>
       </c>
       <c r="Y26" t="n">
-        <v>2632.379908423327</v>
+        <v>2956.920517641553</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>114.5480883512104</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58917990038375</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58917990038375</v>
+        <v>293.2153347787756</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58917990038375</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="L27" t="n">
-        <v>767.7391541323144</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="M27" t="n">
-        <v>767.7391541323144</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="N27" t="n">
-        <v>1422.477750006136</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="O27" t="n">
-        <v>2138.556234149726</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="P27" t="n">
-        <v>2138.556234149726</v>
+        <v>1749.485881694974</v>
       </c>
       <c r="Q27" t="n">
-        <v>2138.556234149726</v>
+        <v>2105.833582304766</v>
       </c>
       <c r="R27" t="n">
         <v>2138.556234149726</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1183.181463338217</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="C28" t="n">
-        <v>1012.088090899934</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="D28" t="n">
-        <v>852.5934462228438</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="E28" t="n">
-        <v>691.6826310911633</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="F28" t="n">
-        <v>527.0515052017546</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="G28" t="n">
-        <v>359.8446929159612</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="H28" t="n">
-        <v>210.6246927697141</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="I28" t="n">
-        <v>95.58917990038375</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="J28" t="n">
         <v>112.6914373589469</v>
@@ -6393,16 +6393,16 @@
         <v>538.4532190228597</v>
       </c>
       <c r="M28" t="n">
-        <v>834.4125083248624</v>
+        <v>834.4125083248623</v>
       </c>
       <c r="N28" t="n">
-        <v>1121.787325907757</v>
+        <v>1121.787325907756</v>
       </c>
       <c r="O28" t="n">
         <v>1387.385022618894</v>
       </c>
       <c r="P28" t="n">
-        <v>1598.226233209487</v>
+        <v>1598.226233209486</v>
       </c>
       <c r="Q28" t="n">
         <v>1667.330774633372</v>
@@ -6414,22 +6414,22 @@
         <v>1667.330774633372</v>
       </c>
       <c r="T28" t="n">
-        <v>1595.616868343497</v>
+        <v>1582.119627026623</v>
       </c>
       <c r="U28" t="n">
-        <v>1595.616868343497</v>
+        <v>1299.323856597584</v>
       </c>
       <c r="V28" t="n">
-        <v>1595.616868343497</v>
+        <v>1025.438111537106</v>
       </c>
       <c r="W28" t="n">
-        <v>1595.616868343497</v>
+        <v>746.36844704598</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.616868343497</v>
+        <v>508.0245849056635</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.881169732262</v>
+        <v>283.2888862944282</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2222.158728758837</v>
+        <v>2546.699337977063</v>
       </c>
       <c r="C29" t="n">
-        <v>1812.034138072107</v>
+        <v>2136.574747290333</v>
       </c>
       <c r="D29" t="n">
-        <v>1407.570208165168</v>
+        <v>1732.110817383394</v>
       </c>
       <c r="E29" t="n">
-        <v>993.2299926820647</v>
+        <v>1317.77060190029</v>
       </c>
       <c r="F29" t="n">
-        <v>572.1995806357522</v>
+        <v>896.7401898539779</v>
       </c>
       <c r="G29" t="n">
-        <v>163.5684479624246</v>
+        <v>488.1090571806502</v>
       </c>
       <c r="H29" t="n">
-        <v>163.5684479624246</v>
+        <v>178.1955119301846</v>
       </c>
       <c r="I29" t="n">
         <v>95.58917990038375</v>
       </c>
       <c r="J29" t="n">
-        <v>357.8561703065297</v>
+        <v>357.8561703065293</v>
       </c>
       <c r="K29" t="n">
-        <v>908.1277733865481</v>
+        <v>908.1277733865479</v>
       </c>
       <c r="L29" t="n">
         <v>1635.745306719105</v>
@@ -6502,13 +6502,13 @@
         <v>3817.720280171116</v>
       </c>
       <c r="W29" t="n">
-        <v>3433.959979306284</v>
+        <v>3758.50058852451</v>
       </c>
       <c r="X29" t="n">
-        <v>3033.316581475237</v>
+        <v>3357.857190693463</v>
       </c>
       <c r="Y29" t="n">
-        <v>2632.379908423327</v>
+        <v>2956.920517641553</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>95.58917990038375</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58917990038375</v>
+        <v>293.2153347787756</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58917990038375</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58917990038375</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="M30" t="n">
-        <v>951.4748621422962</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="N30" t="n">
-        <v>1838.383208073475</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="O30" t="n">
-        <v>2138.556234149726</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="P30" t="n">
-        <v>2138.556234149726</v>
+        <v>1749.485881694974</v>
       </c>
       <c r="Q30" t="n">
-        <v>2138.556234149726</v>
+        <v>2105.833582304766</v>
       </c>
       <c r="R30" t="n">
         <v>2138.556234149726</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3699.216232533254</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="C31" t="n">
-        <v>3528.12286009497</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="D31" t="n">
-        <v>3368.62821541788</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="E31" t="n">
-        <v>3207.7174002862</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="F31" t="n">
-        <v>3207.7174002862</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="G31" t="n">
-        <v>3207.7174002862</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="H31" t="n">
-        <v>3207.7174002862</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="I31" t="n">
-        <v>3207.7174002862</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="J31" t="n">
-        <v>3224.819657744763</v>
+        <v>112.6914373589469</v>
       </c>
       <c r="K31" t="n">
-        <v>3384.334293416319</v>
+        <v>272.2060730305028</v>
       </c>
       <c r="L31" t="n">
-        <v>3650.581439408676</v>
+        <v>538.4532190228597</v>
       </c>
       <c r="M31" t="n">
-        <v>3946.540728710678</v>
+        <v>834.4125083248623</v>
       </c>
       <c r="N31" t="n">
-        <v>4233.915546293572</v>
+        <v>1121.787325907756</v>
       </c>
       <c r="O31" t="n">
-        <v>4499.51324300471</v>
+        <v>1387.385022618894</v>
       </c>
       <c r="P31" t="n">
-        <v>4710.354453595302</v>
+        <v>1598.226233209486</v>
       </c>
       <c r="Q31" t="n">
-        <v>4779.458995019188</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="R31" t="n">
-        <v>4779.458995019188</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="S31" t="n">
-        <v>4779.458995019188</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="T31" t="n">
-        <v>4629.065164169976</v>
+        <v>1427.968235888907</v>
       </c>
       <c r="U31" t="n">
-        <v>4629.065164169976</v>
+        <v>1145.172465459867</v>
       </c>
       <c r="V31" t="n">
-        <v>4629.065164169976</v>
+        <v>1025.438111537106</v>
       </c>
       <c r="W31" t="n">
-        <v>4349.99549967885</v>
+        <v>746.36844704598</v>
       </c>
       <c r="X31" t="n">
-        <v>4111.651637538534</v>
+        <v>508.0245849056635</v>
       </c>
       <c r="Y31" t="n">
-        <v>3886.915938927298</v>
+        <v>283.2888862944282</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2222.158728758838</v>
+        <v>2464.093005947262</v>
       </c>
       <c r="C32" t="n">
-        <v>1812.034138072108</v>
+        <v>2053.968415260532</v>
       </c>
       <c r="D32" t="n">
-        <v>1407.570208165169</v>
+        <v>1649.504485353593</v>
       </c>
       <c r="E32" t="n">
-        <v>993.2299926820656</v>
+        <v>1235.16426987049</v>
       </c>
       <c r="F32" t="n">
-        <v>896.7401898539779</v>
+        <v>814.1338578241771</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1090571806502</v>
+        <v>405.5027251508494</v>
       </c>
       <c r="H32" t="n">
-        <v>178.1955119301846</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="I32" t="n">
-        <v>95.58917990038377</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="J32" t="n">
-        <v>357.8561703065298</v>
+        <v>357.8561703065295</v>
       </c>
       <c r="K32" t="n">
-        <v>908.1277733865486</v>
+        <v>908.1277733865481</v>
       </c>
       <c r="L32" t="n">
-        <v>1635.745306719106</v>
+        <v>1635.745306719105</v>
       </c>
       <c r="M32" t="n">
-        <v>2428.783366478186</v>
+        <v>2428.783366478185</v>
       </c>
       <c r="N32" t="n">
-        <v>3198.954390368451</v>
+        <v>3198.95439036845</v>
       </c>
       <c r="O32" t="n">
-        <v>3858.628428853402</v>
+        <v>3858.628428853401</v>
       </c>
       <c r="P32" t="n">
-        <v>4401.477611495325</v>
+        <v>4401.477611495324</v>
       </c>
       <c r="Q32" t="n">
-        <v>4732.9211040799</v>
+        <v>4732.921104079899</v>
       </c>
       <c r="R32" t="n">
         <v>4779.458995019188</v>
       </c>
       <c r="S32" t="n">
-        <v>4646.391758111924</v>
+        <v>4779.458995019188</v>
       </c>
       <c r="T32" t="n">
-        <v>4424.610554460419</v>
+        <v>4666.544831648843</v>
       </c>
       <c r="U32" t="n">
-        <v>4167.557834834636</v>
+        <v>4409.49211202306</v>
       </c>
       <c r="V32" t="n">
-        <v>3817.720280171117</v>
+        <v>4059.654557359541</v>
       </c>
       <c r="W32" t="n">
-        <v>3433.959979306285</v>
+        <v>3675.894256494709</v>
       </c>
       <c r="X32" t="n">
-        <v>3033.316581475238</v>
+        <v>3275.250858663662</v>
       </c>
       <c r="Y32" t="n">
-        <v>2632.379908423328</v>
+        <v>2874.314185611752</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>114.5480883512104</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58917990038377</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58917990038377</v>
+        <v>293.2153347787756</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58917990038377</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="L33" t="n">
-        <v>767.7391541323144</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="M33" t="n">
-        <v>1623.624836374227</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="N33" t="n">
-        <v>2105.833582304766</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="O33" t="n">
-        <v>2105.833582304766</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="P33" t="n">
-        <v>2105.833582304766</v>
+        <v>1749.485881694974</v>
       </c>
       <c r="Q33" t="n">
         <v>2105.833582304766</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3367.212044963291</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="C34" t="n">
-        <v>3367.212044963291</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="D34" t="n">
-        <v>3207.717400286201</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="E34" t="n">
-        <v>3207.717400286201</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="F34" t="n">
-        <v>3207.717400286201</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="G34" t="n">
-        <v>3207.717400286201</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="H34" t="n">
-        <v>3207.717400286201</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="I34" t="n">
-        <v>3207.717400286201</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="J34" t="n">
-        <v>3224.819657744764</v>
+        <v>112.6914373589469</v>
       </c>
       <c r="K34" t="n">
-        <v>3384.33429341632</v>
+        <v>272.2060730305028</v>
       </c>
       <c r="L34" t="n">
-        <v>3650.581439408676</v>
+        <v>538.4532190228597</v>
       </c>
       <c r="M34" t="n">
-        <v>3946.540728710679</v>
+        <v>834.4125083248623</v>
       </c>
       <c r="N34" t="n">
-        <v>4233.915546293573</v>
+        <v>1121.787325907756</v>
       </c>
       <c r="O34" t="n">
-        <v>4499.513243004711</v>
+        <v>1387.385022618894</v>
       </c>
       <c r="P34" t="n">
-        <v>4710.354453595303</v>
+        <v>1598.226233209486</v>
       </c>
       <c r="Q34" t="n">
-        <v>4779.458995019188</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="R34" t="n">
-        <v>4696.145737501207</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="S34" t="n">
-        <v>4510.513428816274</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="T34" t="n">
-        <v>4271.15089007181</v>
+        <v>1427.968235888907</v>
       </c>
       <c r="U34" t="n">
-        <v>3988.35511964277</v>
+        <v>1145.172465459867</v>
       </c>
       <c r="V34" t="n">
-        <v>3779.647449968571</v>
+        <v>871.2867203993894</v>
       </c>
       <c r="W34" t="n">
-        <v>3779.647449968571</v>
+        <v>592.2170559082638</v>
       </c>
       <c r="X34" t="n">
-        <v>3779.647449968571</v>
+        <v>353.8731937679472</v>
       </c>
       <c r="Y34" t="n">
-        <v>3554.911751357335</v>
+        <v>129.1374951567119</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2222.158728758837</v>
+        <v>2222.158728758838</v>
       </c>
       <c r="C35" t="n">
-        <v>1812.034138072107</v>
+        <v>1812.034138072108</v>
       </c>
       <c r="D35" t="n">
-        <v>1407.570208165168</v>
+        <v>1407.570208165169</v>
       </c>
       <c r="E35" t="n">
-        <v>993.2299926820647</v>
+        <v>993.2299926820656</v>
       </c>
       <c r="F35" t="n">
-        <v>572.1995806357522</v>
+        <v>572.1995806357531</v>
       </c>
       <c r="G35" t="n">
         <v>488.1090571806502</v>
@@ -6934,13 +6934,13 @@
         <v>178.1955119301846</v>
       </c>
       <c r="I35" t="n">
-        <v>95.58917990038375</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="J35" t="n">
-        <v>357.8561703065293</v>
+        <v>357.8561703065297</v>
       </c>
       <c r="K35" t="n">
-        <v>908.1277733865479</v>
+        <v>908.1277733865477</v>
       </c>
       <c r="L35" t="n">
         <v>1635.745306719105</v>
@@ -6958,31 +6958,31 @@
         <v>4401.477611495324</v>
       </c>
       <c r="Q35" t="n">
-        <v>4732.921104079899</v>
+        <v>4732.9211040799</v>
       </c>
       <c r="R35" t="n">
         <v>4779.458995019188</v>
       </c>
       <c r="S35" t="n">
-        <v>4646.391758111923</v>
+        <v>4646.391758111924</v>
       </c>
       <c r="T35" t="n">
-        <v>4424.610554460418</v>
+        <v>4424.610554460419</v>
       </c>
       <c r="U35" t="n">
-        <v>4167.557834834635</v>
+        <v>4167.557834834636</v>
       </c>
       <c r="V35" t="n">
-        <v>3817.720280171116</v>
+        <v>3817.720280171117</v>
       </c>
       <c r="W35" t="n">
-        <v>3433.959979306284</v>
+        <v>3433.959979306285</v>
       </c>
       <c r="X35" t="n">
-        <v>3033.316581475237</v>
+        <v>3033.316581475238</v>
       </c>
       <c r="Y35" t="n">
-        <v>2632.379908423327</v>
+        <v>2632.379908423328</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>114.5480883512104</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58917990038375</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58917990038375</v>
+        <v>293.2153347787756</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58917990038375</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58917990038375</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="M36" t="n">
-        <v>951.4748621422962</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="N36" t="n">
-        <v>1838.383208073475</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="O36" t="n">
-        <v>2138.556234149726</v>
+        <v>1210.774154048318</v>
       </c>
       <c r="P36" t="n">
-        <v>2138.556234149726</v>
+        <v>1782.208533539934</v>
       </c>
       <c r="Q36" t="n">
         <v>2138.556234149726</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>323.2714897053502</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="C37" t="n">
-        <v>323.2714897053502</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="D37" t="n">
-        <v>163.7768450282602</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="E37" t="n">
-        <v>95.58917990038375</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="F37" t="n">
-        <v>95.58917990038375</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="G37" t="n">
-        <v>95.58917990038375</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="H37" t="n">
-        <v>95.58917990038375</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="I37" t="n">
-        <v>95.58917990038375</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="J37" t="n">
         <v>112.6914373589469</v>
@@ -7104,43 +7104,43 @@
         <v>538.4532190228597</v>
       </c>
       <c r="M37" t="n">
-        <v>834.4125083248624</v>
+        <v>834.4125083248623</v>
       </c>
       <c r="N37" t="n">
-        <v>1121.787325907757</v>
+        <v>1121.787325907756</v>
       </c>
       <c r="O37" t="n">
         <v>1387.385022618894</v>
       </c>
       <c r="P37" t="n">
-        <v>1598.226233209487</v>
+        <v>1598.226233209486</v>
       </c>
       <c r="Q37" t="n">
         <v>1667.330774633372</v>
       </c>
       <c r="R37" t="n">
-        <v>1584.01751711539</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="S37" t="n">
-        <v>1398.385208430458</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="T37" t="n">
-        <v>1159.022669685994</v>
+        <v>1427.968235888907</v>
       </c>
       <c r="U37" t="n">
-        <v>876.2268992569539</v>
+        <v>1145.172465459867</v>
       </c>
       <c r="V37" t="n">
-        <v>602.3411541964758</v>
+        <v>871.2867203993894</v>
       </c>
       <c r="W37" t="n">
-        <v>323.2714897053502</v>
+        <v>592.2170559082638</v>
       </c>
       <c r="X37" t="n">
-        <v>323.2714897053502</v>
+        <v>353.8731937679472</v>
       </c>
       <c r="Y37" t="n">
-        <v>323.2714897053502</v>
+        <v>129.1374951567119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2355.225965666103</v>
+        <v>2222.158728758838</v>
       </c>
       <c r="C38" t="n">
-        <v>1945.101374979373</v>
+        <v>1812.034138072108</v>
       </c>
       <c r="D38" t="n">
-        <v>1732.110817383394</v>
+        <v>1407.570208165169</v>
       </c>
       <c r="E38" t="n">
-        <v>1317.77060190029</v>
+        <v>993.2299926820656</v>
       </c>
       <c r="F38" t="n">
-        <v>896.7401898539779</v>
+        <v>572.1995806357531</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1090571806502</v>
+        <v>163.5684479624255</v>
       </c>
       <c r="H38" t="n">
-        <v>178.1955119301846</v>
+        <v>163.5684479624255</v>
       </c>
       <c r="I38" t="n">
         <v>95.58917990038377</v>
       </c>
       <c r="J38" t="n">
-        <v>357.8561703065298</v>
+        <v>357.8561703065297</v>
       </c>
       <c r="K38" t="n">
-        <v>908.1277733865486</v>
+        <v>908.1277733865477</v>
       </c>
       <c r="L38" t="n">
-        <v>1635.745306719106</v>
+        <v>1635.745306719105</v>
       </c>
       <c r="M38" t="n">
-        <v>2428.783366478186</v>
+        <v>2428.783366478185</v>
       </c>
       <c r="N38" t="n">
-        <v>3198.954390368451</v>
+        <v>3198.95439036845</v>
       </c>
       <c r="O38" t="n">
-        <v>3858.628428853402</v>
+        <v>3858.628428853401</v>
       </c>
       <c r="P38" t="n">
-        <v>4401.477611495325</v>
+        <v>4401.477611495324</v>
       </c>
       <c r="Q38" t="n">
         <v>4732.9211040799</v>
@@ -7201,25 +7201,25 @@
         <v>4779.458995019188</v>
       </c>
       <c r="S38" t="n">
-        <v>4779.458995019188</v>
+        <v>4646.391758111924</v>
       </c>
       <c r="T38" t="n">
-        <v>4557.677791367683</v>
+        <v>4424.610554460419</v>
       </c>
       <c r="U38" t="n">
-        <v>4300.625071741901</v>
+        <v>4167.557834834636</v>
       </c>
       <c r="V38" t="n">
-        <v>3950.787517078381</v>
+        <v>3817.720280171117</v>
       </c>
       <c r="W38" t="n">
-        <v>3567.02721621355</v>
+        <v>3433.959979306285</v>
       </c>
       <c r="X38" t="n">
-        <v>3166.383818382502</v>
+        <v>3033.316581475238</v>
       </c>
       <c r="Y38" t="n">
-        <v>2765.447145330592</v>
+        <v>2632.379908423328</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>95.58917990038377</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58917990038377</v>
+        <v>293.2153347787756</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58917990038377</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58917990038377</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="M39" t="n">
-        <v>951.4748621422962</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="N39" t="n">
-        <v>1838.383208073475</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="O39" t="n">
-        <v>2138.556234149726</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="P39" t="n">
-        <v>2138.556234149726</v>
+        <v>1749.485881694974</v>
       </c>
       <c r="Q39" t="n">
-        <v>2138.556234149726</v>
+        <v>2105.833582304766</v>
       </c>
       <c r="R39" t="n">
         <v>2138.556234149726</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>897.0525780306036</v>
+        <v>636.668964196987</v>
       </c>
       <c r="C40" t="n">
-        <v>897.0525780306036</v>
+        <v>583.2014519949477</v>
       </c>
       <c r="D40" t="n">
-        <v>737.5579333535136</v>
+        <v>423.7068073178577</v>
       </c>
       <c r="E40" t="n">
-        <v>576.647118221833</v>
+        <v>262.7959921861772</v>
       </c>
       <c r="F40" t="n">
-        <v>412.0159923324243</v>
+        <v>262.7959921861772</v>
       </c>
       <c r="G40" t="n">
-        <v>244.8091800466309</v>
+        <v>95.58917990038377</v>
       </c>
       <c r="H40" t="n">
         <v>95.58917990038377</v>
@@ -7341,16 +7341,16 @@
         <v>538.4532190228597</v>
       </c>
       <c r="M40" t="n">
-        <v>834.4125083248624</v>
+        <v>834.4125083248623</v>
       </c>
       <c r="N40" t="n">
-        <v>1121.787325907757</v>
+        <v>1121.787325907756</v>
       </c>
       <c r="O40" t="n">
         <v>1387.385022618894</v>
       </c>
       <c r="P40" t="n">
-        <v>1598.226233209487</v>
+        <v>1598.226233209486</v>
       </c>
       <c r="Q40" t="n">
         <v>1667.330774633372</v>
@@ -7359,25 +7359,25 @@
         <v>1667.330774633372</v>
       </c>
       <c r="S40" t="n">
-        <v>1653.82864340651</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="T40" t="n">
-        <v>1414.466104662046</v>
+        <v>1427.968235888907</v>
       </c>
       <c r="U40" t="n">
-        <v>1414.466104662046</v>
+        <v>1427.968235888907</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.466104662046</v>
+        <v>1154.082490828429</v>
       </c>
       <c r="W40" t="n">
-        <v>1135.39644017092</v>
+        <v>875.0128263373035</v>
       </c>
       <c r="X40" t="n">
-        <v>897.0525780306036</v>
+        <v>636.668964196987</v>
       </c>
       <c r="Y40" t="n">
-        <v>897.0525780306036</v>
+        <v>636.668964196987</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2222.158728758837</v>
+        <v>2546.699337977063</v>
       </c>
       <c r="C41" t="n">
         <v>2136.574747290333</v>
@@ -7438,25 +7438,25 @@
         <v>4779.458995019188</v>
       </c>
       <c r="S41" t="n">
-        <v>4646.391758111923</v>
+        <v>4713.879647704366</v>
       </c>
       <c r="T41" t="n">
-        <v>4424.610554460418</v>
+        <v>4492.098444052861</v>
       </c>
       <c r="U41" t="n">
-        <v>4167.557834834635</v>
+        <v>4492.098444052861</v>
       </c>
       <c r="V41" t="n">
-        <v>3817.720280171116</v>
+        <v>4142.260889389341</v>
       </c>
       <c r="W41" t="n">
-        <v>3433.959979306284</v>
+        <v>3758.50058852451</v>
       </c>
       <c r="X41" t="n">
-        <v>3033.316581475237</v>
+        <v>3357.857190693463</v>
       </c>
       <c r="Y41" t="n">
-        <v>2632.379908423327</v>
+        <v>2956.920517641553</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>95.58917990038375</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58917990038375</v>
+        <v>293.2153347787756</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58917990038375</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58917990038375</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="M42" t="n">
-        <v>502.8467522299972</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="N42" t="n">
-        <v>1389.755098161176</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.833582304766</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.833582304766</v>
+        <v>1749.485881694974</v>
       </c>
       <c r="Q42" t="n">
         <v>2105.833582304766</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>686.5461498788445</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="C43" t="n">
-        <v>686.5461498788445</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="D43" t="n">
-        <v>527.0515052017546</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="E43" t="n">
-        <v>527.0515052017546</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="F43" t="n">
-        <v>527.0515052017546</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="G43" t="n">
-        <v>359.8446929159612</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="H43" t="n">
-        <v>210.6246927697141</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="I43" t="n">
         <v>95.58917990038375</v>
@@ -7593,28 +7593,28 @@
         <v>1667.330774633372</v>
       </c>
       <c r="R43" t="n">
-        <v>1584.01751711539</v>
+        <v>1667.330774633372</v>
       </c>
       <c r="S43" t="n">
-        <v>1398.385208430458</v>
+        <v>1633.782459377043</v>
       </c>
       <c r="T43" t="n">
-        <v>1398.385208430458</v>
+        <v>1394.419920632579</v>
       </c>
       <c r="U43" t="n">
-        <v>1398.385208430458</v>
+        <v>1111.624150203539</v>
       </c>
       <c r="V43" t="n">
-        <v>1398.385208430458</v>
+        <v>837.7384051430613</v>
       </c>
       <c r="W43" t="n">
-        <v>1119.315543939332</v>
+        <v>558.6687406519357</v>
       </c>
       <c r="X43" t="n">
-        <v>911.2818484900798</v>
+        <v>320.3248785116191</v>
       </c>
       <c r="Y43" t="n">
-        <v>686.5461498788445</v>
+        <v>95.58917990038375</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2222.158728758837</v>
+        <v>2464.093005947262</v>
       </c>
       <c r="C44" t="n">
-        <v>1812.034138072107</v>
+        <v>2053.968415260532</v>
       </c>
       <c r="D44" t="n">
-        <v>1407.570208165168</v>
+        <v>1649.504485353593</v>
       </c>
       <c r="E44" t="n">
-        <v>1317.77060190029</v>
+        <v>1235.16426987049</v>
       </c>
       <c r="F44" t="n">
-        <v>896.7401898539779</v>
+        <v>814.1338578241771</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1090571806502</v>
+        <v>405.5027251508494</v>
       </c>
       <c r="H44" t="n">
-        <v>178.1955119301846</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="I44" t="n">
         <v>95.58917990038375</v>
@@ -7675,25 +7675,25 @@
         <v>4779.458995019188</v>
       </c>
       <c r="S44" t="n">
-        <v>4646.391758111923</v>
+        <v>4779.458995019188</v>
       </c>
       <c r="T44" t="n">
-        <v>4424.610554460418</v>
+        <v>4666.544831648843</v>
       </c>
       <c r="U44" t="n">
-        <v>4167.557834834635</v>
+        <v>4409.49211202306</v>
       </c>
       <c r="V44" t="n">
-        <v>3817.720280171116</v>
+        <v>4059.654557359541</v>
       </c>
       <c r="W44" t="n">
-        <v>3433.959979306284</v>
+        <v>3675.894256494709</v>
       </c>
       <c r="X44" t="n">
-        <v>3033.316581475237</v>
+        <v>3275.250858663662</v>
       </c>
       <c r="Y44" t="n">
-        <v>2632.379908423327</v>
+        <v>2874.314185611752</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>95.58917990038375</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58917990038375</v>
+        <v>293.2153347787756</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58917990038375</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58917990038375</v>
+        <v>757.2482828074225</v>
       </c>
       <c r="M45" t="n">
-        <v>535.5694040749573</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="N45" t="n">
-        <v>1422.477750006136</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="O45" t="n">
-        <v>2138.556234149726</v>
+        <v>1178.051502203357</v>
       </c>
       <c r="P45" t="n">
-        <v>2138.556234149726</v>
+        <v>1749.485881694974</v>
       </c>
       <c r="Q45" t="n">
-        <v>2138.556234149726</v>
+        <v>2105.833582304766</v>
       </c>
       <c r="R45" t="n">
         <v>2138.556234149726</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>531.0301525784846</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="C46" t="n">
-        <v>531.0301525784846</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="D46" t="n">
-        <v>371.5355079013946</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="E46" t="n">
-        <v>210.6246927697141</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="F46" t="n">
-        <v>210.6246927697141</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="G46" t="n">
-        <v>210.6246927697141</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="H46" t="n">
-        <v>210.6246927697141</v>
+        <v>95.58917990038375</v>
       </c>
       <c r="I46" t="n">
         <v>95.58917990038375</v>
@@ -7836,22 +7836,22 @@
         <v>1667.330774633372</v>
       </c>
       <c r="T46" t="n">
-        <v>1460.879084215207</v>
+        <v>1427.968235888908</v>
       </c>
       <c r="U46" t="n">
-        <v>1460.879084215207</v>
+        <v>1145.172465459868</v>
       </c>
       <c r="V46" t="n">
-        <v>1460.879084215207</v>
+        <v>871.2867203993899</v>
       </c>
       <c r="W46" t="n">
-        <v>1181.809419724081</v>
+        <v>592.2170559082642</v>
       </c>
       <c r="X46" t="n">
-        <v>943.4655575837643</v>
+        <v>353.8731937679476</v>
       </c>
       <c r="Y46" t="n">
-        <v>718.729858972529</v>
+        <v>129.1374951567123</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N2" t="n">
-        <v>493.8215862770622</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,16 +8057,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>235.5014795744224</v>
       </c>
       <c r="M3" t="n">
-        <v>502.6011371814506</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>594.2603172363631</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>500.8626362276487</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>579.627854108443</v>
@@ -8309,16 +8309,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>98.31121191537974</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>594.2603172363631</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>500.8626362276483</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>555.2297277821215</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>46.50732231943579</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>44.94098612131137</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>469.579049242043</v>
       </c>
       <c r="N12" t="n">
-        <v>91.22187412838747</v>
+        <v>39.80929862651648</v>
       </c>
       <c r="O12" t="n">
-        <v>45.50764708313601</v>
+        <v>45.50764708313603</v>
       </c>
       <c r="P12" t="n">
-        <v>44.43288045423103</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.12369332725454</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>55.80511578992019</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>47.51599312466772</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>44.94098612131135</v>
+        <v>503.0479267686802</v>
       </c>
       <c r="M15" t="n">
-        <v>574.9347709540112</v>
+        <v>44.52529227645213</v>
       </c>
       <c r="N15" t="n">
-        <v>39.80929862651647</v>
+        <v>39.80929862651648</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>45.50764708313603</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.12369332725454</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>55.80511578992019</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>46.50732231943579</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>151.0986913043233</v>
       </c>
       <c r="L18" t="n">
-        <v>44.94098612131135</v>
+        <v>44.94098612131137</v>
       </c>
       <c r="M18" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>39.80929862651647</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>198.6531465651219</v>
+        <v>45.50764708313603</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>44.43288045423105</v>
       </c>
       <c r="Q18" t="n">
         <v>50.12369332725454</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>46.50732231943579</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>47.51599312466773</v>
       </c>
       <c r="L21" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>204.104076115052</v>
+        <v>44.52529227645213</v>
       </c>
       <c r="N21" t="n">
-        <v>39.80929862651647</v>
+        <v>501.5390370057389</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>44.43288045423103</v>
+        <v>44.43288045423105</v>
       </c>
       <c r="Q21" t="n">
         <v>50.12369332725454</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>55.80511578992019</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>46.50732231943579</v>
+        <v>46.5073223194358</v>
       </c>
       <c r="K24" t="n">
-        <v>47.51599312466772</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>44.94098612131135</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>44.52529227645213</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>39.80929862651648</v>
       </c>
       <c r="O24" t="n">
-        <v>348.7127239278341</v>
+        <v>45.50764708313603</v>
       </c>
       <c r="P24" t="n">
-        <v>44.43288045423103</v>
+        <v>600.4292757865271</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.12369332725454</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>55.80511578992019</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>46.50732231943579</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>47.51599312466772</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>44.94098612131137</v>
       </c>
       <c r="M27" t="n">
-        <v>44.52529227645211</v>
+        <v>44.52529227645213</v>
       </c>
       <c r="N27" t="n">
-        <v>701.161415670781</v>
+        <v>39.80929862651648</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>470.5614040487268</v>
       </c>
       <c r="P27" t="n">
-        <v>44.43288045423103</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.12369332725454</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>55.80511578992019</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>46.50732231943579</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>47.51599312466772</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>44.94098612131135</v>
+        <v>469.9947430869022</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>44.52529227645213</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>39.80929862651648</v>
       </c>
       <c r="O30" t="n">
-        <v>348.7127239278341</v>
+        <v>45.50764708313603</v>
       </c>
       <c r="P30" t="n">
-        <v>44.43288045423103</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.12369332725454</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>55.80511578992019</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>46.50732231943579</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>47.51599312466772</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>44.94098612131137</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>44.52529227645213</v>
       </c>
       <c r="N33" t="n">
-        <v>526.8888399704954</v>
+        <v>39.80929862651648</v>
       </c>
       <c r="O33" t="n">
-        <v>45.50764708313601</v>
+        <v>470.5614040487268</v>
       </c>
       <c r="P33" t="n">
-        <v>44.43288045423103</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.12369332725454</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>46.50732231943579</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>47.51599312466772</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>44.94098612131135</v>
+        <v>44.94098612131137</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>44.52529227645213</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>39.80929862651648</v>
       </c>
       <c r="O36" t="n">
-        <v>348.7127239278341</v>
+        <v>503.6145877305048</v>
       </c>
       <c r="P36" t="n">
-        <v>44.43288045423103</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.12369332725454</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>55.80511578992019</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>46.50732231943579</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>47.51599312466772</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>44.94098612131135</v>
+        <v>469.9947430869022</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>44.52529227645213</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>39.80929862651648</v>
       </c>
       <c r="O39" t="n">
-        <v>348.7127239278341</v>
+        <v>45.50764708313603</v>
       </c>
       <c r="P39" t="n">
-        <v>44.43288045423103</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.12369332725454</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>55.80511578992019</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>46.5073223194358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>47.51599312466773</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>44.94098612131136</v>
+        <v>469.9947430869022</v>
       </c>
       <c r="M42" t="n">
-        <v>455.8965774578797</v>
+        <v>44.52529227645212</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>39.80929862651647</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>45.50764708313602</v>
       </c>
       <c r="P42" t="n">
-        <v>44.43288045423104</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.12369332725454</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681337</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920619</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>46.5073223194358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>47.51599312466773</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>44.94098612131136</v>
       </c>
       <c r="M45" t="n">
-        <v>488.9497611396578</v>
+        <v>469.579049242043</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>39.80929862651647</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>45.50764708313602</v>
       </c>
       <c r="P45" t="n">
-        <v>44.43288045423104</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.12369332725454</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>55.80511578992019</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>321.2952031260432</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.2952031260433</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5347441629355</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.7278001447847</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>113.8851577406371</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>82.48012494280177</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>236.9689133570197</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5549368119967</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>64.46297433944116</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>321.2952031260434</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.78026870950282</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.5633916149905</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>19.95154280155054</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>166.3026990473488</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.48012494280177</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5549368119967</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>107.7783698783488</v>
       </c>
       <c r="G17" t="n">
-        <v>321.2952031260433</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>81.78026870950282</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>131.7365645381919</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.2420828554528</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5347441629355</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.7278001447847</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>113.8851577406371</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>82.48012494280177</v>
       </c>
       <c r="S19" t="n">
-        <v>183.7759855980831</v>
+        <v>76.95478591906441</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>236.9689133570197</v>
       </c>
       <c r="U19" t="n">
         <v>279.9678127247493</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>321.2952031260435</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>81.78026870950282</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>131.7365645381919</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>107.7783698783477</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5347441629355</v>
+        <v>51.07849855130058</v>
       </c>
       <c r="H22" t="n">
-        <v>81.62402041823215</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>113.8851577406371</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>82.48012494280177</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.7759855980831</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>236.9689133570197</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9678127247493</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>306.8144097979609</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>101.7318115110525</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.5633916149905</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>14.48079332808197</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>112.7792183711074</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>11.48335771582573</v>
+        <v>82.48012494280177</v>
       </c>
       <c r="S25" t="n">
-        <v>183.7759855980831</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>236.9689133570197</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.4807933280822</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>306.8144097979609</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>131.7365645381919</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>189.558638587851</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5347441629355</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.7278001447847</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>113.8851577406371</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>183.7759855980831</v>
       </c>
       <c r="T28" t="n">
-        <v>165.9721461300437</v>
+        <v>152.6098772263389</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9678127247493</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>306.8144097979609</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>14.48079332808237</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>321.2952031260432</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24891,13 +24891,13 @@
         <v>183.7759855980831</v>
       </c>
       <c r="T31" t="n">
-        <v>88.07902081630027</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9678127247493</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>152.6098772263391</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>321.2952031260425</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>81.78026870950282</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>131.7365645381919</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>107.7783698783491</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>152.6098772263391</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>82.48012494280177</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.7759855980831</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>64.52629463241558</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>321.2952031260433</v>
+        <v>321.2952031260424</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>152.6098772263392</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>91.79591850376605</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>82.48012494280177</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.7759855980831</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>189.5586385878506</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>306.8144097979609</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>14.48079332808149</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>131.7365645381919</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>116.4496016338817</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.7278001447847</v>
       </c>
       <c r="I40" t="n">
         <v>113.8851577406371</v>
@@ -25599,7 +25599,7 @@
         <v>82.48012494280177</v>
       </c>
       <c r="S40" t="n">
-        <v>170.4088756834901</v>
+        <v>183.7759855980831</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>279.9678127247493</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>321.2952031260435</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>66.81301069651867</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.4821924295248</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25800,13 +25800,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5347441629355</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.7278001447847</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>113.8851577406371</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>82.48012494280177</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>150.5631534943178</v>
       </c>
       <c r="T43" t="n">
-        <v>236.9689133570197</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9678127247493</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>30.0070650241536</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>321.2952031260434</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>81.78026870950282</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>131.7365645381919</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>107.7783698783491</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>152.6098772263387</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26043,7 +26043,7 @@
         <v>147.7278001447847</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>113.8851577406371</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>183.7759855980831</v>
       </c>
       <c r="T46" t="n">
-        <v>32.58173984303605</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9678127247493</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>686551.1311066293</v>
+        <v>686551.1311066292</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>663008.8813914823</v>
+        <v>663008.8813914821</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>663008.8813914822</v>
+        <v>663008.8813914821</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>663008.8813914821</v>
+        <v>663008.8813914822</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>663008.8813914822</v>
+        <v>663008.8813914821</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>663008.8813914821</v>
+        <v>663008.8813914823</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>663008.8813914821</v>
+        <v>663008.8813914823</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>663008.8813914821</v>
+        <v>663008.8813914823</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>663008.8813914821</v>
+        <v>663008.8813914822</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>663008.8813914821</v>
+        <v>663008.8813914822</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>663008.8813914821</v>
+        <v>663008.8813914822</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>521223.6577038622</v>
       </c>
       <c r="C2" t="n">
-        <v>521223.6577038624</v>
+        <v>521223.6577038622</v>
       </c>
       <c r="D2" t="n">
-        <v>521223.6577038622</v>
+        <v>521223.657703862</v>
       </c>
       <c r="E2" t="n">
+        <v>472048.3980800787</v>
+      </c>
+      <c r="F2" t="n">
+        <v>472048.3980800787</v>
+      </c>
+      <c r="G2" t="n">
+        <v>472048.3980800784</v>
+      </c>
+      <c r="H2" t="n">
+        <v>472048.3980800786</v>
+      </c>
+      <c r="I2" t="n">
+        <v>472048.3980800786</v>
+      </c>
+      <c r="J2" t="n">
+        <v>472048.3980800788</v>
+      </c>
+      <c r="K2" t="n">
+        <v>472048.3980800786</v>
+      </c>
+      <c r="L2" t="n">
         <v>472048.3980800785</v>
       </c>
-      <c r="F2" t="n">
-        <v>472048.3980800788</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>472048.3980800786</v>
-      </c>
-      <c r="H2" t="n">
-        <v>472048.3980800787</v>
-      </c>
-      <c r="I2" t="n">
-        <v>472048.3980800785</v>
-      </c>
-      <c r="J2" t="n">
-        <v>472048.3980800785</v>
-      </c>
-      <c r="K2" t="n">
-        <v>472048.3980800785</v>
-      </c>
-      <c r="L2" t="n">
-        <v>472048.3980800786</v>
-      </c>
-      <c r="M2" t="n">
-        <v>472048.3980800785</v>
       </c>
       <c r="N2" t="n">
         <v>472048.3980800785</v>
       </c>
       <c r="O2" t="n">
-        <v>472048.3980800785</v>
+        <v>472048.3980800786</v>
       </c>
       <c r="P2" t="n">
         <v>472048.3980800787</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>167664.7448581985</v>
+        <v>167664.7448581986</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222716.40879149</v>
+        <v>222716.4087914901</v>
       </c>
       <c r="C4" t="n">
         <v>222716.4087914901</v>
@@ -26487,22 +26487,22 @@
         <v>73169.33638277026</v>
       </c>
       <c r="H5" t="n">
+        <v>73169.33638277027</v>
+      </c>
+      <c r="I5" t="n">
         <v>73169.33638277026</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>73169.33638277027</v>
-      </c>
-      <c r="J5" t="n">
-        <v>73169.33638277026</v>
       </c>
       <c r="K5" t="n">
         <v>73169.33638277026</v>
       </c>
       <c r="L5" t="n">
+        <v>73169.33638277026</v>
+      </c>
+      <c r="M5" t="n">
         <v>73169.33638277027</v>
-      </c>
-      <c r="M5" t="n">
-        <v>73169.33638277026</v>
       </c>
       <c r="N5" t="n">
         <v>73169.33638277027</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58182.67394076055</v>
+        <v>58182.67394076045</v>
       </c>
       <c r="C6" t="n">
-        <v>233138.1838338748</v>
+        <v>233138.1838338745</v>
       </c>
       <c r="D6" t="n">
-        <v>233138.1838338746</v>
+        <v>233138.1838338744</v>
       </c>
       <c r="E6" t="n">
-        <v>75569.50038128707</v>
+        <v>75415.82769496291</v>
       </c>
       <c r="F6" t="n">
-        <v>295674.3505431057</v>
+        <v>295520.6778567813</v>
       </c>
       <c r="G6" t="n">
-        <v>295674.3505431055</v>
+        <v>295520.6778567809</v>
       </c>
       <c r="H6" t="n">
-        <v>295674.3505431056</v>
+        <v>295520.6778567812</v>
       </c>
       <c r="I6" t="n">
-        <v>295674.3505431055</v>
+        <v>295520.6778567812</v>
       </c>
       <c r="J6" t="n">
-        <v>159079.5497372106</v>
+        <v>158925.8770508863</v>
       </c>
       <c r="K6" t="n">
-        <v>295674.3505431054</v>
+        <v>295520.6778567811</v>
       </c>
       <c r="L6" t="n">
-        <v>295674.3505431055</v>
+        <v>295520.677856781</v>
       </c>
       <c r="M6" t="n">
-        <v>128009.6056849069</v>
+        <v>127855.9329985826</v>
       </c>
       <c r="N6" t="n">
-        <v>295674.3505431055</v>
+        <v>295520.677856781</v>
       </c>
       <c r="O6" t="n">
-        <v>295674.3505431055</v>
+        <v>295520.6778567811</v>
       </c>
       <c r="P6" t="n">
-        <v>295674.3505431056</v>
+        <v>295520.6778567812</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.92475497608314</v>
+        <v>23.92475497608311</v>
       </c>
       <c r="F3" t="n">
-        <v>23.92475497608314</v>
+        <v>23.92475497608311</v>
       </c>
       <c r="G3" t="n">
-        <v>23.92475497608314</v>
+        <v>23.92475497608311</v>
       </c>
       <c r="H3" t="n">
-        <v>23.92475497608314</v>
+        <v>23.92475497608311</v>
       </c>
       <c r="I3" t="n">
-        <v>23.92475497608314</v>
+        <v>23.92475497608311</v>
       </c>
       <c r="J3" t="n">
-        <v>23.92475497608314</v>
+        <v>23.92475497608311</v>
       </c>
       <c r="K3" t="n">
-        <v>23.92475497608314</v>
+        <v>23.92475497608311</v>
       </c>
       <c r="L3" t="n">
-        <v>23.92475497608314</v>
+        <v>23.92475497608311</v>
       </c>
       <c r="M3" t="n">
-        <v>23.92475497608314</v>
+        <v>23.92475497608311</v>
       </c>
       <c r="N3" t="n">
-        <v>23.92475497608314</v>
+        <v>23.92475497608311</v>
       </c>
       <c r="O3" t="n">
         <v>23.92475497608312</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.92475497608314</v>
+        <v>23.92475497608311</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700252</v>
+        <v>522.0635703700258</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>672.8011783847712</v>
+        <v>672.8011783847716</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>383.8580275794145</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3899964072493</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>66.88661649537951</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>214.4546828871034</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>211.0986994240484</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>46.94995237817253</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27675,13 +27675,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>33.3801907226115</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>315.0840485198707</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>11.9277653640173</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>41.0583796560044</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>50.88211298447035</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09617991950184168</v>
+        <v>0.09617991950184158</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9850026005982364</v>
+        <v>0.9850026005982353</v>
       </c>
       <c r="I11" t="n">
-        <v>3.707976346594755</v>
+        <v>3.707976346594751</v>
       </c>
       <c r="J11" t="n">
-        <v>8.163150442819443</v>
+        <v>8.163150442819434</v>
       </c>
       <c r="K11" t="n">
-        <v>12.2344464353324</v>
+        <v>12.23444643533239</v>
       </c>
       <c r="L11" t="n">
-        <v>15.17791264678689</v>
+        <v>15.17791264678688</v>
       </c>
       <c r="M11" t="n">
-        <v>16.88835229022777</v>
+        <v>16.88835229022775</v>
       </c>
       <c r="N11" t="n">
-        <v>17.16162348651238</v>
+        <v>17.16162348651236</v>
       </c>
       <c r="O11" t="n">
-        <v>16.20523441196594</v>
+        <v>16.20523441196592</v>
       </c>
       <c r="P11" t="n">
-        <v>13.83079264926422</v>
+        <v>13.83079264926421</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.38634928210451</v>
+        <v>10.3863492821045</v>
       </c>
       <c r="R11" t="n">
-        <v>6.041661868407568</v>
+        <v>6.041661868407561</v>
       </c>
       <c r="S11" t="n">
-        <v>2.191699915648219</v>
+        <v>2.191699915648217</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4210275976193122</v>
+        <v>0.4210275976193117</v>
       </c>
       <c r="U11" t="n">
-        <v>0.007694393560147333</v>
+        <v>0.007694393560147325</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05146079372214109</v>
+        <v>0.05146079372214103</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4970029288427837</v>
+        <v>0.4970029288427832</v>
       </c>
       <c r="I12" t="n">
-        <v>1.771786099643893</v>
+        <v>1.771786099643891</v>
       </c>
       <c r="J12" t="n">
-        <v>4.861916480564216</v>
+        <v>4.861916480564211</v>
       </c>
       <c r="K12" t="n">
-        <v>8.309789659947668</v>
+        <v>8.30978965994766</v>
       </c>
       <c r="L12" t="n">
-        <v>11.1735376895377</v>
+        <v>11.17353768953769</v>
       </c>
       <c r="M12" t="n">
-        <v>13.03899146196531</v>
+        <v>13.03899146196529</v>
       </c>
       <c r="N12" t="n">
-        <v>13.38409476723353</v>
+        <v>13.38409476723351</v>
       </c>
       <c r="O12" t="n">
-        <v>12.24383191686398</v>
+        <v>12.24383191686397</v>
       </c>
       <c r="P12" t="n">
-        <v>9.826754548572714</v>
+        <v>9.826754548572703</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.568925177584186</v>
+        <v>6.568925177584179</v>
       </c>
       <c r="R12" t="n">
-        <v>3.195083315485217</v>
+        <v>3.195083315485214</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9558616728652077</v>
+        <v>0.9558616728652067</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2074231115379283</v>
+        <v>0.207423111537928</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003385578534351389</v>
+        <v>0.003385578534351385</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04314300077654336</v>
+        <v>0.04314300077654331</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3835804978132676</v>
+        <v>0.3835804978132672</v>
       </c>
       <c r="I13" t="n">
-        <v>1.29742769608005</v>
+        <v>1.297427696080048</v>
       </c>
       <c r="J13" t="n">
-        <v>3.050210154901615</v>
+        <v>3.050210154901612</v>
       </c>
       <c r="K13" t="n">
-        <v>5.012432272038399</v>
+        <v>5.012432272038394</v>
       </c>
       <c r="L13" t="n">
-        <v>6.414187588178092</v>
+        <v>6.414187588178086</v>
       </c>
       <c r="M13" t="n">
-        <v>6.762861476272154</v>
+        <v>6.762861476272147</v>
       </c>
       <c r="N13" t="n">
-        <v>6.602055746105044</v>
+        <v>6.602055746105036</v>
       </c>
       <c r="O13" t="n">
-        <v>6.098067055215421</v>
+        <v>6.098067055215415</v>
       </c>
       <c r="P13" t="n">
-        <v>5.217949839373932</v>
+        <v>5.217949839373927</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.612638001388553</v>
+        <v>3.61263800138855</v>
       </c>
       <c r="R13" t="n">
-        <v>1.939866198552576</v>
+        <v>1.939866198552574</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7518648408057599</v>
+        <v>0.7518648408057591</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1843382760452306</v>
+        <v>0.1843382760452305</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002353254587811458</v>
+        <v>0.002353254587811456</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09617991950184168</v>
+        <v>0.0961799195018416</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9850026005982364</v>
+        <v>0.9850026005982355</v>
       </c>
       <c r="I14" t="n">
-        <v>3.707976346594755</v>
+        <v>3.707976346594752</v>
       </c>
       <c r="J14" t="n">
-        <v>8.163150442819443</v>
+        <v>8.163150442819436</v>
       </c>
       <c r="K14" t="n">
-        <v>12.2344464353324</v>
+        <v>12.23444643533239</v>
       </c>
       <c r="L14" t="n">
-        <v>15.17791264678689</v>
+        <v>15.17791264678688</v>
       </c>
       <c r="M14" t="n">
-        <v>16.88835229022777</v>
+        <v>16.88835229022775</v>
       </c>
       <c r="N14" t="n">
-        <v>17.16162348651238</v>
+        <v>17.16162348651237</v>
       </c>
       <c r="O14" t="n">
-        <v>16.20523441196594</v>
+        <v>16.20523441196593</v>
       </c>
       <c r="P14" t="n">
-        <v>13.83079264926422</v>
+        <v>13.83079264926421</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.38634928210451</v>
+        <v>10.3863492821045</v>
       </c>
       <c r="R14" t="n">
-        <v>6.041661868407568</v>
+        <v>6.041661868407562</v>
       </c>
       <c r="S14" t="n">
-        <v>2.191699915648219</v>
+        <v>2.191699915648218</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4210275976193122</v>
+        <v>0.4210275976193118</v>
       </c>
       <c r="U14" t="n">
-        <v>0.007694393560147333</v>
+        <v>0.007694393560147326</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05146079372214109</v>
+        <v>0.05146079372214104</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4970029288427837</v>
+        <v>0.4970029288427833</v>
       </c>
       <c r="I15" t="n">
-        <v>1.771786099643893</v>
+        <v>1.771786099643891</v>
       </c>
       <c r="J15" t="n">
-        <v>4.861916480564216</v>
+        <v>4.861916480564212</v>
       </c>
       <c r="K15" t="n">
-        <v>8.309789659947668</v>
+        <v>8.309789659947661</v>
       </c>
       <c r="L15" t="n">
-        <v>11.1735376895377</v>
+        <v>11.17353768953769</v>
       </c>
       <c r="M15" t="n">
-        <v>13.03899146196531</v>
+        <v>13.0389914619653</v>
       </c>
       <c r="N15" t="n">
-        <v>13.38409476723353</v>
+        <v>13.38409476723352</v>
       </c>
       <c r="O15" t="n">
-        <v>12.24383191686398</v>
+        <v>12.24383191686397</v>
       </c>
       <c r="P15" t="n">
-        <v>9.826754548572714</v>
+        <v>9.826754548572705</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.568925177584186</v>
+        <v>6.568925177584179</v>
       </c>
       <c r="R15" t="n">
-        <v>3.195083315485217</v>
+        <v>3.195083315485214</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9558616728652077</v>
+        <v>0.9558616728652068</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2074231115379283</v>
+        <v>0.2074231115379281</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003385578534351389</v>
+        <v>0.003385578534351386</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04314300077654336</v>
+        <v>0.04314300077654332</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3835804978132676</v>
+        <v>0.3835804978132673</v>
       </c>
       <c r="I16" t="n">
-        <v>1.29742769608005</v>
+        <v>1.297427696080049</v>
       </c>
       <c r="J16" t="n">
-        <v>3.050210154901615</v>
+        <v>3.050210154901612</v>
       </c>
       <c r="K16" t="n">
-        <v>5.012432272038399</v>
+        <v>5.012432272038395</v>
       </c>
       <c r="L16" t="n">
-        <v>6.414187588178092</v>
+        <v>6.414187588178087</v>
       </c>
       <c r="M16" t="n">
-        <v>6.762861476272154</v>
+        <v>6.762861476272149</v>
       </c>
       <c r="N16" t="n">
-        <v>6.602055746105044</v>
+        <v>6.602055746105038</v>
       </c>
       <c r="O16" t="n">
-        <v>6.098067055215421</v>
+        <v>6.098067055215416</v>
       </c>
       <c r="P16" t="n">
-        <v>5.217949839373932</v>
+        <v>5.217949839373928</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.612638001388553</v>
+        <v>3.61263800138855</v>
       </c>
       <c r="R16" t="n">
-        <v>1.939866198552576</v>
+        <v>1.939866198552574</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7518648408057599</v>
+        <v>0.7518648408057592</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1843382760452306</v>
+        <v>0.1843382760452305</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002353254587811458</v>
+        <v>0.002353254587811457</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09617991950184168</v>
+        <v>0.09617991950184158</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9850026005982364</v>
+        <v>0.9850026005982353</v>
       </c>
       <c r="I17" t="n">
-        <v>3.707976346594755</v>
+        <v>3.707976346594751</v>
       </c>
       <c r="J17" t="n">
-        <v>8.163150442819443</v>
+        <v>8.163150442819434</v>
       </c>
       <c r="K17" t="n">
-        <v>12.2344464353324</v>
+        <v>12.23444643533239</v>
       </c>
       <c r="L17" t="n">
-        <v>15.17791264678689</v>
+        <v>15.17791264678688</v>
       </c>
       <c r="M17" t="n">
-        <v>16.88835229022777</v>
+        <v>16.88835229022775</v>
       </c>
       <c r="N17" t="n">
-        <v>17.16162348651238</v>
+        <v>17.16162348651236</v>
       </c>
       <c r="O17" t="n">
-        <v>16.20523441196594</v>
+        <v>16.20523441196592</v>
       </c>
       <c r="P17" t="n">
-        <v>13.83079264926422</v>
+        <v>13.83079264926421</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.38634928210451</v>
+        <v>10.3863492821045</v>
       </c>
       <c r="R17" t="n">
-        <v>6.041661868407568</v>
+        <v>6.041661868407561</v>
       </c>
       <c r="S17" t="n">
-        <v>2.191699915648219</v>
+        <v>2.191699915648217</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4210275976193122</v>
+        <v>0.4210275976193117</v>
       </c>
       <c r="U17" t="n">
-        <v>0.007694393560147333</v>
+        <v>0.007694393560147325</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05146079372214109</v>
+        <v>0.05146079372214103</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4970029288427837</v>
+        <v>0.4970029288427832</v>
       </c>
       <c r="I18" t="n">
-        <v>1.771786099643893</v>
+        <v>1.771786099643891</v>
       </c>
       <c r="J18" t="n">
-        <v>4.861916480564216</v>
+        <v>4.861916480564211</v>
       </c>
       <c r="K18" t="n">
-        <v>8.309789659947668</v>
+        <v>8.30978965994766</v>
       </c>
       <c r="L18" t="n">
-        <v>11.1735376895377</v>
+        <v>11.17353768953769</v>
       </c>
       <c r="M18" t="n">
-        <v>13.03899146196531</v>
+        <v>13.03899146196529</v>
       </c>
       <c r="N18" t="n">
-        <v>13.38409476723353</v>
+        <v>13.38409476723351</v>
       </c>
       <c r="O18" t="n">
-        <v>12.24383191686398</v>
+        <v>12.24383191686397</v>
       </c>
       <c r="P18" t="n">
-        <v>9.826754548572714</v>
+        <v>9.826754548572703</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.568925177584186</v>
+        <v>6.568925177584179</v>
       </c>
       <c r="R18" t="n">
-        <v>3.195083315485217</v>
+        <v>3.195083315485214</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9558616728652077</v>
+        <v>0.9558616728652067</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2074231115379283</v>
+        <v>0.207423111537928</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003385578534351389</v>
+        <v>0.003385578534351385</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04314300077654336</v>
+        <v>0.04314300077654331</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3835804978132676</v>
+        <v>0.3835804978132672</v>
       </c>
       <c r="I19" t="n">
-        <v>1.29742769608005</v>
+        <v>1.297427696080048</v>
       </c>
       <c r="J19" t="n">
-        <v>3.050210154901615</v>
+        <v>3.050210154901612</v>
       </c>
       <c r="K19" t="n">
-        <v>5.012432272038399</v>
+        <v>5.012432272038394</v>
       </c>
       <c r="L19" t="n">
-        <v>6.414187588178092</v>
+        <v>6.414187588178086</v>
       </c>
       <c r="M19" t="n">
-        <v>6.762861476272154</v>
+        <v>6.762861476272147</v>
       </c>
       <c r="N19" t="n">
-        <v>6.602055746105044</v>
+        <v>6.602055746105036</v>
       </c>
       <c r="O19" t="n">
-        <v>6.098067055215421</v>
+        <v>6.098067055215415</v>
       </c>
       <c r="P19" t="n">
-        <v>5.217949839373932</v>
+        <v>5.217949839373927</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.612638001388553</v>
+        <v>3.61263800138855</v>
       </c>
       <c r="R19" t="n">
-        <v>1.939866198552576</v>
+        <v>1.939866198552574</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7518648408057599</v>
+        <v>0.7518648408057591</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1843382760452306</v>
+        <v>0.1843382760452305</v>
       </c>
       <c r="U19" t="n">
-        <v>0.002353254587811458</v>
+        <v>0.002353254587811456</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09617991950184168</v>
+        <v>0.09617991950184158</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9850026005982364</v>
+        <v>0.9850026005982353</v>
       </c>
       <c r="I20" t="n">
-        <v>3.707976346594755</v>
+        <v>3.707976346594751</v>
       </c>
       <c r="J20" t="n">
-        <v>8.163150442819443</v>
+        <v>8.163150442819434</v>
       </c>
       <c r="K20" t="n">
-        <v>12.2344464353324</v>
+        <v>12.23444643533239</v>
       </c>
       <c r="L20" t="n">
-        <v>15.17791264678689</v>
+        <v>15.17791264678688</v>
       </c>
       <c r="M20" t="n">
-        <v>16.88835229022777</v>
+        <v>16.88835229022775</v>
       </c>
       <c r="N20" t="n">
-        <v>17.16162348651238</v>
+        <v>17.16162348651236</v>
       </c>
       <c r="O20" t="n">
-        <v>16.20523441196594</v>
+        <v>16.20523441196592</v>
       </c>
       <c r="P20" t="n">
-        <v>13.83079264926422</v>
+        <v>13.83079264926421</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.38634928210451</v>
+        <v>10.3863492821045</v>
       </c>
       <c r="R20" t="n">
-        <v>6.041661868407568</v>
+        <v>6.041661868407561</v>
       </c>
       <c r="S20" t="n">
-        <v>2.191699915648219</v>
+        <v>2.191699915648217</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4210275976193122</v>
+        <v>0.4210275976193117</v>
       </c>
       <c r="U20" t="n">
-        <v>0.007694393560147333</v>
+        <v>0.007694393560147325</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05146079372214109</v>
+        <v>0.05146079372214103</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4970029288427837</v>
+        <v>0.4970029288427832</v>
       </c>
       <c r="I21" t="n">
-        <v>1.771786099643893</v>
+        <v>1.771786099643891</v>
       </c>
       <c r="J21" t="n">
-        <v>4.861916480564216</v>
+        <v>4.861916480564211</v>
       </c>
       <c r="K21" t="n">
-        <v>8.309789659947668</v>
+        <v>8.30978965994766</v>
       </c>
       <c r="L21" t="n">
-        <v>11.1735376895377</v>
+        <v>11.17353768953769</v>
       </c>
       <c r="M21" t="n">
-        <v>13.03899146196531</v>
+        <v>13.03899146196529</v>
       </c>
       <c r="N21" t="n">
-        <v>13.38409476723353</v>
+        <v>13.38409476723351</v>
       </c>
       <c r="O21" t="n">
-        <v>12.24383191686398</v>
+        <v>12.24383191686397</v>
       </c>
       <c r="P21" t="n">
-        <v>9.826754548572714</v>
+        <v>9.826754548572703</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.568925177584186</v>
+        <v>6.568925177584179</v>
       </c>
       <c r="R21" t="n">
-        <v>3.195083315485217</v>
+        <v>3.195083315485214</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9558616728652077</v>
+        <v>0.9558616728652067</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2074231115379283</v>
+        <v>0.207423111537928</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003385578534351389</v>
+        <v>0.003385578534351385</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04314300077654336</v>
+        <v>0.04314300077654331</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3835804978132676</v>
+        <v>0.3835804978132672</v>
       </c>
       <c r="I22" t="n">
-        <v>1.29742769608005</v>
+        <v>1.297427696080048</v>
       </c>
       <c r="J22" t="n">
-        <v>3.050210154901615</v>
+        <v>3.050210154901612</v>
       </c>
       <c r="K22" t="n">
-        <v>5.012432272038399</v>
+        <v>5.012432272038394</v>
       </c>
       <c r="L22" t="n">
-        <v>6.414187588178092</v>
+        <v>6.414187588178086</v>
       </c>
       <c r="M22" t="n">
-        <v>6.762861476272154</v>
+        <v>6.762861476272147</v>
       </c>
       <c r="N22" t="n">
-        <v>6.602055746105044</v>
+        <v>6.602055746105036</v>
       </c>
       <c r="O22" t="n">
-        <v>6.098067055215421</v>
+        <v>6.098067055215415</v>
       </c>
       <c r="P22" t="n">
-        <v>5.217949839373932</v>
+        <v>5.217949839373927</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.612638001388553</v>
+        <v>3.61263800138855</v>
       </c>
       <c r="R22" t="n">
-        <v>1.939866198552576</v>
+        <v>1.939866198552574</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7518648408057599</v>
+        <v>0.7518648408057591</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1843382760452306</v>
+        <v>0.1843382760452305</v>
       </c>
       <c r="U22" t="n">
-        <v>0.002353254587811458</v>
+        <v>0.002353254587811456</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09617991950184168</v>
+        <v>0.09617991950184158</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9850026005982364</v>
+        <v>0.9850026005982353</v>
       </c>
       <c r="I23" t="n">
-        <v>3.707976346594755</v>
+        <v>3.707976346594751</v>
       </c>
       <c r="J23" t="n">
-        <v>8.163150442819443</v>
+        <v>8.163150442819434</v>
       </c>
       <c r="K23" t="n">
-        <v>12.2344464353324</v>
+        <v>12.23444643533239</v>
       </c>
       <c r="L23" t="n">
-        <v>15.17791264678689</v>
+        <v>15.17791264678688</v>
       </c>
       <c r="M23" t="n">
-        <v>16.88835229022777</v>
+        <v>16.88835229022775</v>
       </c>
       <c r="N23" t="n">
-        <v>17.16162348651238</v>
+        <v>17.16162348651236</v>
       </c>
       <c r="O23" t="n">
-        <v>16.20523441196594</v>
+        <v>16.20523441196592</v>
       </c>
       <c r="P23" t="n">
-        <v>13.83079264926422</v>
+        <v>13.83079264926421</v>
       </c>
       <c r="Q23" t="n">
-        <v>10.38634928210451</v>
+        <v>10.3863492821045</v>
       </c>
       <c r="R23" t="n">
-        <v>6.041661868407568</v>
+        <v>6.041661868407561</v>
       </c>
       <c r="S23" t="n">
-        <v>2.191699915648219</v>
+        <v>2.191699915648217</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4210275976193122</v>
+        <v>0.4210275976193117</v>
       </c>
       <c r="U23" t="n">
-        <v>0.007694393560147333</v>
+        <v>0.007694393560147325</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05146079372214109</v>
+        <v>0.05146079372214103</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4970029288427837</v>
+        <v>0.4970029288427832</v>
       </c>
       <c r="I24" t="n">
-        <v>1.771786099643893</v>
+        <v>1.771786099643891</v>
       </c>
       <c r="J24" t="n">
-        <v>4.861916480564216</v>
+        <v>4.861916480564211</v>
       </c>
       <c r="K24" t="n">
-        <v>8.309789659947668</v>
+        <v>8.30978965994766</v>
       </c>
       <c r="L24" t="n">
-        <v>11.1735376895377</v>
+        <v>11.17353768953769</v>
       </c>
       <c r="M24" t="n">
-        <v>13.03899146196531</v>
+        <v>13.03899146196529</v>
       </c>
       <c r="N24" t="n">
-        <v>13.38409476723353</v>
+        <v>13.38409476723351</v>
       </c>
       <c r="O24" t="n">
-        <v>12.24383191686398</v>
+        <v>12.24383191686397</v>
       </c>
       <c r="P24" t="n">
-        <v>9.826754548572714</v>
+        <v>9.826754548572703</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.568925177584186</v>
+        <v>6.568925177584179</v>
       </c>
       <c r="R24" t="n">
-        <v>3.195083315485217</v>
+        <v>3.195083315485214</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9558616728652077</v>
+        <v>0.9558616728652067</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2074231115379283</v>
+        <v>0.207423111537928</v>
       </c>
       <c r="U24" t="n">
-        <v>0.003385578534351389</v>
+        <v>0.003385578534351385</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04314300077654336</v>
+        <v>0.04314300077654331</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3835804978132676</v>
+        <v>0.3835804978132672</v>
       </c>
       <c r="I25" t="n">
-        <v>1.29742769608005</v>
+        <v>1.297427696080048</v>
       </c>
       <c r="J25" t="n">
-        <v>3.050210154901615</v>
+        <v>3.050210154901612</v>
       </c>
       <c r="K25" t="n">
-        <v>5.012432272038399</v>
+        <v>5.012432272038394</v>
       </c>
       <c r="L25" t="n">
-        <v>6.414187588178092</v>
+        <v>6.414187588178086</v>
       </c>
       <c r="M25" t="n">
-        <v>6.762861476272154</v>
+        <v>6.762861476272147</v>
       </c>
       <c r="N25" t="n">
-        <v>6.602055746105044</v>
+        <v>6.602055746105036</v>
       </c>
       <c r="O25" t="n">
-        <v>6.098067055215421</v>
+        <v>6.098067055215415</v>
       </c>
       <c r="P25" t="n">
-        <v>5.217949839373932</v>
+        <v>5.217949839373927</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.612638001388553</v>
+        <v>3.61263800138855</v>
       </c>
       <c r="R25" t="n">
-        <v>1.939866198552576</v>
+        <v>1.939866198552574</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7518648408057599</v>
+        <v>0.7518648408057591</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1843382760452306</v>
+        <v>0.1843382760452305</v>
       </c>
       <c r="U25" t="n">
-        <v>0.002353254587811458</v>
+        <v>0.002353254587811456</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09617991950184168</v>
+        <v>0.09617991950184158</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9850026005982364</v>
+        <v>0.9850026005982353</v>
       </c>
       <c r="I26" t="n">
-        <v>3.707976346594755</v>
+        <v>3.707976346594751</v>
       </c>
       <c r="J26" t="n">
-        <v>8.163150442819443</v>
+        <v>8.163150442819434</v>
       </c>
       <c r="K26" t="n">
-        <v>12.2344464353324</v>
+        <v>12.23444643533239</v>
       </c>
       <c r="L26" t="n">
-        <v>15.17791264678689</v>
+        <v>15.17791264678688</v>
       </c>
       <c r="M26" t="n">
-        <v>16.88835229022777</v>
+        <v>16.88835229022775</v>
       </c>
       <c r="N26" t="n">
-        <v>17.16162348651238</v>
+        <v>17.16162348651236</v>
       </c>
       <c r="O26" t="n">
-        <v>16.20523441196594</v>
+        <v>16.20523441196592</v>
       </c>
       <c r="P26" t="n">
-        <v>13.83079264926422</v>
+        <v>13.83079264926421</v>
       </c>
       <c r="Q26" t="n">
-        <v>10.38634928210451</v>
+        <v>10.3863492821045</v>
       </c>
       <c r="R26" t="n">
-        <v>6.041661868407568</v>
+        <v>6.041661868407561</v>
       </c>
       <c r="S26" t="n">
-        <v>2.191699915648219</v>
+        <v>2.191699915648217</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4210275976193122</v>
+        <v>0.4210275976193117</v>
       </c>
       <c r="U26" t="n">
-        <v>0.007694393560147333</v>
+        <v>0.007694393560147325</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05146079372214109</v>
+        <v>0.05146079372214103</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4970029288427837</v>
+        <v>0.4970029288427832</v>
       </c>
       <c r="I27" t="n">
-        <v>1.771786099643893</v>
+        <v>1.771786099643891</v>
       </c>
       <c r="J27" t="n">
-        <v>4.861916480564216</v>
+        <v>4.861916480564211</v>
       </c>
       <c r="K27" t="n">
-        <v>8.309789659947668</v>
+        <v>8.30978965994766</v>
       </c>
       <c r="L27" t="n">
-        <v>11.1735376895377</v>
+        <v>11.17353768953769</v>
       </c>
       <c r="M27" t="n">
-        <v>13.03899146196531</v>
+        <v>13.03899146196529</v>
       </c>
       <c r="N27" t="n">
-        <v>13.38409476723353</v>
+        <v>13.38409476723351</v>
       </c>
       <c r="O27" t="n">
-        <v>12.24383191686398</v>
+        <v>12.24383191686397</v>
       </c>
       <c r="P27" t="n">
-        <v>9.826754548572714</v>
+        <v>9.826754548572703</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.568925177584186</v>
+        <v>6.568925177584179</v>
       </c>
       <c r="R27" t="n">
-        <v>3.195083315485217</v>
+        <v>3.195083315485214</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9558616728652077</v>
+        <v>0.9558616728652067</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2074231115379283</v>
+        <v>0.207423111537928</v>
       </c>
       <c r="U27" t="n">
-        <v>0.003385578534351389</v>
+        <v>0.003385578534351385</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04314300077654336</v>
+        <v>0.04314300077654331</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3835804978132676</v>
+        <v>0.3835804978132672</v>
       </c>
       <c r="I28" t="n">
-        <v>1.29742769608005</v>
+        <v>1.297427696080048</v>
       </c>
       <c r="J28" t="n">
-        <v>3.050210154901615</v>
+        <v>3.050210154901612</v>
       </c>
       <c r="K28" t="n">
-        <v>5.012432272038399</v>
+        <v>5.012432272038394</v>
       </c>
       <c r="L28" t="n">
-        <v>6.414187588178092</v>
+        <v>6.414187588178086</v>
       </c>
       <c r="M28" t="n">
-        <v>6.762861476272154</v>
+        <v>6.762861476272147</v>
       </c>
       <c r="N28" t="n">
-        <v>6.602055746105044</v>
+        <v>6.602055746105036</v>
       </c>
       <c r="O28" t="n">
-        <v>6.098067055215421</v>
+        <v>6.098067055215415</v>
       </c>
       <c r="P28" t="n">
-        <v>5.217949839373932</v>
+        <v>5.217949839373927</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.612638001388553</v>
+        <v>3.61263800138855</v>
       </c>
       <c r="R28" t="n">
-        <v>1.939866198552576</v>
+        <v>1.939866198552574</v>
       </c>
       <c r="S28" t="n">
-        <v>0.7518648408057599</v>
+        <v>0.7518648408057591</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1843382760452306</v>
+        <v>0.1843382760452305</v>
       </c>
       <c r="U28" t="n">
-        <v>0.002353254587811458</v>
+        <v>0.002353254587811456</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.09617991950184168</v>
+        <v>0.09617991950184158</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9850026005982364</v>
+        <v>0.9850026005982353</v>
       </c>
       <c r="I29" t="n">
-        <v>3.707976346594755</v>
+        <v>3.707976346594751</v>
       </c>
       <c r="J29" t="n">
-        <v>8.163150442819443</v>
+        <v>8.163150442819434</v>
       </c>
       <c r="K29" t="n">
-        <v>12.2344464353324</v>
+        <v>12.23444643533239</v>
       </c>
       <c r="L29" t="n">
-        <v>15.17791264678689</v>
+        <v>15.17791264678688</v>
       </c>
       <c r="M29" t="n">
-        <v>16.88835229022777</v>
+        <v>16.88835229022775</v>
       </c>
       <c r="N29" t="n">
-        <v>17.16162348651238</v>
+        <v>17.16162348651236</v>
       </c>
       <c r="O29" t="n">
-        <v>16.20523441196594</v>
+        <v>16.20523441196592</v>
       </c>
       <c r="P29" t="n">
-        <v>13.83079264926422</v>
+        <v>13.83079264926421</v>
       </c>
       <c r="Q29" t="n">
-        <v>10.38634928210451</v>
+        <v>10.3863492821045</v>
       </c>
       <c r="R29" t="n">
-        <v>6.041661868407568</v>
+        <v>6.041661868407561</v>
       </c>
       <c r="S29" t="n">
-        <v>2.191699915648219</v>
+        <v>2.191699915648217</v>
       </c>
       <c r="T29" t="n">
-        <v>0.4210275976193122</v>
+        <v>0.4210275976193117</v>
       </c>
       <c r="U29" t="n">
-        <v>0.007694393560147333</v>
+        <v>0.007694393560147325</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05146079372214109</v>
+        <v>0.05146079372214103</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4970029288427837</v>
+        <v>0.4970029288427832</v>
       </c>
       <c r="I30" t="n">
-        <v>1.771786099643893</v>
+        <v>1.771786099643891</v>
       </c>
       <c r="J30" t="n">
-        <v>4.861916480564216</v>
+        <v>4.861916480564211</v>
       </c>
       <c r="K30" t="n">
-        <v>8.309789659947668</v>
+        <v>8.30978965994766</v>
       </c>
       <c r="L30" t="n">
-        <v>11.1735376895377</v>
+        <v>11.17353768953769</v>
       </c>
       <c r="M30" t="n">
-        <v>13.03899146196531</v>
+        <v>13.03899146196529</v>
       </c>
       <c r="N30" t="n">
-        <v>13.38409476723353</v>
+        <v>13.38409476723351</v>
       </c>
       <c r="O30" t="n">
-        <v>12.24383191686398</v>
+        <v>12.24383191686397</v>
       </c>
       <c r="P30" t="n">
-        <v>9.826754548572714</v>
+        <v>9.826754548572703</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.568925177584186</v>
+        <v>6.568925177584179</v>
       </c>
       <c r="R30" t="n">
-        <v>3.195083315485217</v>
+        <v>3.195083315485214</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9558616728652077</v>
+        <v>0.9558616728652067</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2074231115379283</v>
+        <v>0.207423111537928</v>
       </c>
       <c r="U30" t="n">
-        <v>0.003385578534351389</v>
+        <v>0.003385578534351385</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04314300077654336</v>
+        <v>0.04314300077654331</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3835804978132676</v>
+        <v>0.3835804978132672</v>
       </c>
       <c r="I31" t="n">
-        <v>1.29742769608005</v>
+        <v>1.297427696080048</v>
       </c>
       <c r="J31" t="n">
-        <v>3.050210154901615</v>
+        <v>3.050210154901612</v>
       </c>
       <c r="K31" t="n">
-        <v>5.012432272038399</v>
+        <v>5.012432272038394</v>
       </c>
       <c r="L31" t="n">
-        <v>6.414187588178092</v>
+        <v>6.414187588178086</v>
       </c>
       <c r="M31" t="n">
-        <v>6.762861476272154</v>
+        <v>6.762861476272147</v>
       </c>
       <c r="N31" t="n">
-        <v>6.602055746105044</v>
+        <v>6.602055746105036</v>
       </c>
       <c r="O31" t="n">
-        <v>6.098067055215421</v>
+        <v>6.098067055215415</v>
       </c>
       <c r="P31" t="n">
-        <v>5.217949839373932</v>
+        <v>5.217949839373927</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.612638001388553</v>
+        <v>3.61263800138855</v>
       </c>
       <c r="R31" t="n">
-        <v>1.939866198552576</v>
+        <v>1.939866198552574</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7518648408057599</v>
+        <v>0.7518648408057591</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1843382760452306</v>
+        <v>0.1843382760452305</v>
       </c>
       <c r="U31" t="n">
-        <v>0.002353254587811458</v>
+        <v>0.002353254587811456</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09617991950184168</v>
+        <v>0.09617991950184158</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9850026005982364</v>
+        <v>0.9850026005982353</v>
       </c>
       <c r="I32" t="n">
-        <v>3.707976346594755</v>
+        <v>3.707976346594751</v>
       </c>
       <c r="J32" t="n">
-        <v>8.163150442819443</v>
+        <v>8.163150442819434</v>
       </c>
       <c r="K32" t="n">
-        <v>12.2344464353324</v>
+        <v>12.23444643533239</v>
       </c>
       <c r="L32" t="n">
-        <v>15.17791264678689</v>
+        <v>15.17791264678688</v>
       </c>
       <c r="M32" t="n">
-        <v>16.88835229022777</v>
+        <v>16.88835229022775</v>
       </c>
       <c r="N32" t="n">
-        <v>17.16162348651238</v>
+        <v>17.16162348651236</v>
       </c>
       <c r="O32" t="n">
-        <v>16.20523441196594</v>
+        <v>16.20523441196592</v>
       </c>
       <c r="P32" t="n">
-        <v>13.83079264926422</v>
+        <v>13.83079264926421</v>
       </c>
       <c r="Q32" t="n">
-        <v>10.38634928210451</v>
+        <v>10.3863492821045</v>
       </c>
       <c r="R32" t="n">
-        <v>6.041661868407568</v>
+        <v>6.041661868407561</v>
       </c>
       <c r="S32" t="n">
-        <v>2.191699915648219</v>
+        <v>2.191699915648217</v>
       </c>
       <c r="T32" t="n">
-        <v>0.4210275976193122</v>
+        <v>0.4210275976193117</v>
       </c>
       <c r="U32" t="n">
-        <v>0.007694393560147333</v>
+        <v>0.007694393560147325</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05146079372214109</v>
+        <v>0.05146079372214103</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4970029288427837</v>
+        <v>0.4970029288427832</v>
       </c>
       <c r="I33" t="n">
-        <v>1.771786099643893</v>
+        <v>1.771786099643891</v>
       </c>
       <c r="J33" t="n">
-        <v>4.861916480564216</v>
+        <v>4.861916480564211</v>
       </c>
       <c r="K33" t="n">
-        <v>8.309789659947668</v>
+        <v>8.30978965994766</v>
       </c>
       <c r="L33" t="n">
-        <v>11.1735376895377</v>
+        <v>11.17353768953769</v>
       </c>
       <c r="M33" t="n">
-        <v>13.03899146196531</v>
+        <v>13.03899146196529</v>
       </c>
       <c r="N33" t="n">
-        <v>13.38409476723353</v>
+        <v>13.38409476723351</v>
       </c>
       <c r="O33" t="n">
-        <v>12.24383191686398</v>
+        <v>12.24383191686397</v>
       </c>
       <c r="P33" t="n">
-        <v>9.826754548572714</v>
+        <v>9.826754548572703</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.568925177584186</v>
+        <v>6.568925177584179</v>
       </c>
       <c r="R33" t="n">
-        <v>3.195083315485217</v>
+        <v>3.195083315485214</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9558616728652077</v>
+        <v>0.9558616728652067</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2074231115379283</v>
+        <v>0.207423111537928</v>
       </c>
       <c r="U33" t="n">
-        <v>0.003385578534351389</v>
+        <v>0.003385578534351385</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04314300077654336</v>
+        <v>0.04314300077654331</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3835804978132676</v>
+        <v>0.3835804978132672</v>
       </c>
       <c r="I34" t="n">
-        <v>1.29742769608005</v>
+        <v>1.297427696080048</v>
       </c>
       <c r="J34" t="n">
-        <v>3.050210154901615</v>
+        <v>3.050210154901612</v>
       </c>
       <c r="K34" t="n">
-        <v>5.012432272038399</v>
+        <v>5.012432272038394</v>
       </c>
       <c r="L34" t="n">
-        <v>6.414187588178092</v>
+        <v>6.414187588178086</v>
       </c>
       <c r="M34" t="n">
-        <v>6.762861476272154</v>
+        <v>6.762861476272147</v>
       </c>
       <c r="N34" t="n">
-        <v>6.602055746105044</v>
+        <v>6.602055746105036</v>
       </c>
       <c r="O34" t="n">
-        <v>6.098067055215421</v>
+        <v>6.098067055215415</v>
       </c>
       <c r="P34" t="n">
-        <v>5.217949839373932</v>
+        <v>5.217949839373927</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.612638001388553</v>
+        <v>3.61263800138855</v>
       </c>
       <c r="R34" t="n">
-        <v>1.939866198552576</v>
+        <v>1.939866198552574</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7518648408057599</v>
+        <v>0.7518648408057591</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1843382760452306</v>
+        <v>0.1843382760452305</v>
       </c>
       <c r="U34" t="n">
-        <v>0.002353254587811458</v>
+        <v>0.002353254587811456</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09617991950184168</v>
+        <v>0.09617991950184158</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9850026005982364</v>
+        <v>0.9850026005982353</v>
       </c>
       <c r="I35" t="n">
-        <v>3.707976346594755</v>
+        <v>3.707976346594751</v>
       </c>
       <c r="J35" t="n">
-        <v>8.163150442819443</v>
+        <v>8.163150442819434</v>
       </c>
       <c r="K35" t="n">
-        <v>12.2344464353324</v>
+        <v>12.23444643533239</v>
       </c>
       <c r="L35" t="n">
-        <v>15.17791264678689</v>
+        <v>15.17791264678688</v>
       </c>
       <c r="M35" t="n">
-        <v>16.88835229022777</v>
+        <v>16.88835229022775</v>
       </c>
       <c r="N35" t="n">
-        <v>17.16162348651238</v>
+        <v>17.16162348651236</v>
       </c>
       <c r="O35" t="n">
-        <v>16.20523441196594</v>
+        <v>16.20523441196592</v>
       </c>
       <c r="P35" t="n">
-        <v>13.83079264926422</v>
+        <v>13.83079264926421</v>
       </c>
       <c r="Q35" t="n">
-        <v>10.38634928210451</v>
+        <v>10.3863492821045</v>
       </c>
       <c r="R35" t="n">
-        <v>6.041661868407568</v>
+        <v>6.041661868407561</v>
       </c>
       <c r="S35" t="n">
-        <v>2.191699915648219</v>
+        <v>2.191699915648217</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4210275976193122</v>
+        <v>0.4210275976193117</v>
       </c>
       <c r="U35" t="n">
-        <v>0.007694393560147333</v>
+        <v>0.007694393560147325</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05146079372214109</v>
+        <v>0.05146079372214103</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4970029288427837</v>
+        <v>0.4970029288427832</v>
       </c>
       <c r="I36" t="n">
-        <v>1.771786099643893</v>
+        <v>1.771786099643891</v>
       </c>
       <c r="J36" t="n">
-        <v>4.861916480564216</v>
+        <v>4.861916480564211</v>
       </c>
       <c r="K36" t="n">
-        <v>8.309789659947668</v>
+        <v>8.30978965994766</v>
       </c>
       <c r="L36" t="n">
-        <v>11.1735376895377</v>
+        <v>11.17353768953769</v>
       </c>
       <c r="M36" t="n">
-        <v>13.03899146196531</v>
+        <v>13.03899146196529</v>
       </c>
       <c r="N36" t="n">
-        <v>13.38409476723353</v>
+        <v>13.38409476723351</v>
       </c>
       <c r="O36" t="n">
-        <v>12.24383191686398</v>
+        <v>12.24383191686397</v>
       </c>
       <c r="P36" t="n">
-        <v>9.826754548572714</v>
+        <v>9.826754548572703</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.568925177584186</v>
+        <v>6.568925177584179</v>
       </c>
       <c r="R36" t="n">
-        <v>3.195083315485217</v>
+        <v>3.195083315485214</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9558616728652077</v>
+        <v>0.9558616728652067</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2074231115379283</v>
+        <v>0.207423111537928</v>
       </c>
       <c r="U36" t="n">
-        <v>0.003385578534351389</v>
+        <v>0.003385578534351385</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04314300077654336</v>
+        <v>0.04314300077654331</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3835804978132676</v>
+        <v>0.3835804978132672</v>
       </c>
       <c r="I37" t="n">
-        <v>1.29742769608005</v>
+        <v>1.297427696080048</v>
       </c>
       <c r="J37" t="n">
-        <v>3.050210154901615</v>
+        <v>3.050210154901612</v>
       </c>
       <c r="K37" t="n">
-        <v>5.012432272038399</v>
+        <v>5.012432272038394</v>
       </c>
       <c r="L37" t="n">
-        <v>6.414187588178092</v>
+        <v>6.414187588178086</v>
       </c>
       <c r="M37" t="n">
-        <v>6.762861476272154</v>
+        <v>6.762861476272147</v>
       </c>
       <c r="N37" t="n">
-        <v>6.602055746105044</v>
+        <v>6.602055746105036</v>
       </c>
       <c r="O37" t="n">
-        <v>6.098067055215421</v>
+        <v>6.098067055215415</v>
       </c>
       <c r="P37" t="n">
-        <v>5.217949839373932</v>
+        <v>5.217949839373927</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.612638001388553</v>
+        <v>3.61263800138855</v>
       </c>
       <c r="R37" t="n">
-        <v>1.939866198552576</v>
+        <v>1.939866198552574</v>
       </c>
       <c r="S37" t="n">
-        <v>0.7518648408057599</v>
+        <v>0.7518648408057591</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1843382760452306</v>
+        <v>0.1843382760452305</v>
       </c>
       <c r="U37" t="n">
-        <v>0.002353254587811458</v>
+        <v>0.002353254587811456</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.09617991950184168</v>
+        <v>0.09617991950184158</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9850026005982364</v>
+        <v>0.9850026005982353</v>
       </c>
       <c r="I38" t="n">
-        <v>3.707976346594755</v>
+        <v>3.707976346594751</v>
       </c>
       <c r="J38" t="n">
-        <v>8.163150442819443</v>
+        <v>8.163150442819434</v>
       </c>
       <c r="K38" t="n">
-        <v>12.2344464353324</v>
+        <v>12.23444643533239</v>
       </c>
       <c r="L38" t="n">
-        <v>15.17791264678689</v>
+        <v>15.17791264678688</v>
       </c>
       <c r="M38" t="n">
-        <v>16.88835229022777</v>
+        <v>16.88835229022775</v>
       </c>
       <c r="N38" t="n">
-        <v>17.16162348651238</v>
+        <v>17.16162348651236</v>
       </c>
       <c r="O38" t="n">
-        <v>16.20523441196594</v>
+        <v>16.20523441196592</v>
       </c>
       <c r="P38" t="n">
-        <v>13.83079264926422</v>
+        <v>13.83079264926421</v>
       </c>
       <c r="Q38" t="n">
-        <v>10.38634928210451</v>
+        <v>10.3863492821045</v>
       </c>
       <c r="R38" t="n">
-        <v>6.041661868407568</v>
+        <v>6.041661868407561</v>
       </c>
       <c r="S38" t="n">
-        <v>2.191699915648219</v>
+        <v>2.191699915648217</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4210275976193122</v>
+        <v>0.4210275976193117</v>
       </c>
       <c r="U38" t="n">
-        <v>0.007694393560147333</v>
+        <v>0.007694393560147325</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05146079372214109</v>
+        <v>0.05146079372214103</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4970029288427837</v>
+        <v>0.4970029288427832</v>
       </c>
       <c r="I39" t="n">
-        <v>1.771786099643893</v>
+        <v>1.771786099643891</v>
       </c>
       <c r="J39" t="n">
-        <v>4.861916480564216</v>
+        <v>4.861916480564211</v>
       </c>
       <c r="K39" t="n">
-        <v>8.309789659947668</v>
+        <v>8.30978965994766</v>
       </c>
       <c r="L39" t="n">
-        <v>11.1735376895377</v>
+        <v>11.17353768953769</v>
       </c>
       <c r="M39" t="n">
-        <v>13.03899146196531</v>
+        <v>13.03899146196529</v>
       </c>
       <c r="N39" t="n">
-        <v>13.38409476723353</v>
+        <v>13.38409476723351</v>
       </c>
       <c r="O39" t="n">
-        <v>12.24383191686398</v>
+        <v>12.24383191686397</v>
       </c>
       <c r="P39" t="n">
-        <v>9.826754548572714</v>
+        <v>9.826754548572703</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.568925177584186</v>
+        <v>6.568925177584179</v>
       </c>
       <c r="R39" t="n">
-        <v>3.195083315485217</v>
+        <v>3.195083315485214</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9558616728652077</v>
+        <v>0.9558616728652067</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2074231115379283</v>
+        <v>0.207423111537928</v>
       </c>
       <c r="U39" t="n">
-        <v>0.003385578534351389</v>
+        <v>0.003385578534351385</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04314300077654336</v>
+        <v>0.04314300077654331</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3835804978132676</v>
+        <v>0.3835804978132672</v>
       </c>
       <c r="I40" t="n">
-        <v>1.29742769608005</v>
+        <v>1.297427696080048</v>
       </c>
       <c r="J40" t="n">
-        <v>3.050210154901615</v>
+        <v>3.050210154901612</v>
       </c>
       <c r="K40" t="n">
-        <v>5.012432272038399</v>
+        <v>5.012432272038394</v>
       </c>
       <c r="L40" t="n">
-        <v>6.414187588178092</v>
+        <v>6.414187588178086</v>
       </c>
       <c r="M40" t="n">
-        <v>6.762861476272154</v>
+        <v>6.762861476272147</v>
       </c>
       <c r="N40" t="n">
-        <v>6.602055746105044</v>
+        <v>6.602055746105036</v>
       </c>
       <c r="O40" t="n">
-        <v>6.098067055215421</v>
+        <v>6.098067055215415</v>
       </c>
       <c r="P40" t="n">
-        <v>5.217949839373932</v>
+        <v>5.217949839373927</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.612638001388553</v>
+        <v>3.61263800138855</v>
       </c>
       <c r="R40" t="n">
-        <v>1.939866198552576</v>
+        <v>1.939866198552574</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7518648408057599</v>
+        <v>0.7518648408057591</v>
       </c>
       <c r="T40" t="n">
-        <v>0.1843382760452306</v>
+        <v>0.1843382760452305</v>
       </c>
       <c r="U40" t="n">
-        <v>0.002353254587811458</v>
+        <v>0.002353254587811456</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34704,19 +34704,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N2" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>179.3869557635733</v>
       </c>
       <c r="M3" t="n">
-        <v>445.0368534430332</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="M5" t="n">
-        <v>500.9700927793177</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>522.0635703700256</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>40.55973291537975</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>445.0368534430329</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>777.950529182086</v>
       </c>
       <c r="O11" t="n">
-        <v>666.3374126110618</v>
+        <v>666.3374126110617</v>
       </c>
       <c r="P11" t="n">
         <v>548.3325077191142</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>199.6223786650422</v>
       </c>
       <c r="K12" t="n">
         <v>468.7201495238858</v>
       </c>
       <c r="L12" t="n">
-        <v>678.939367911041</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>864.5309921635478</v>
+        <v>425.0537569655908</v>
       </c>
       <c r="N12" t="n">
-        <v>51.412575501871</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>577.2064439309263</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>359.9471723331229</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>33.05318368177804</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>777.950529182086</v>
       </c>
       <c r="O14" t="n">
-        <v>666.3374126110618</v>
+        <v>666.3374126110617</v>
       </c>
       <c r="P14" t="n">
         <v>548.3325077191142</v>
@@ -35728,28 +35728,28 @@
         <v>199.6223786650422</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>468.7201495238858</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>458.1069406473688</v>
       </c>
       <c r="M15" t="n">
-        <v>530.4094786775592</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>723.3116001450401</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>577.2064439309263</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>359.9471723331229</v>
       </c>
       <c r="R15" t="n">
-        <v>33.05318368177804</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>777.950529182086</v>
       </c>
       <c r="O17" t="n">
-        <v>666.3374126110618</v>
+        <v>666.3374126110617</v>
       </c>
       <c r="P17" t="n">
         <v>548.3325077191142</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>199.6223786650422</v>
       </c>
       <c r="K18" t="n">
-        <v>468.7201495238858</v>
+        <v>103.5826981796556</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>864.5309921635478</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>895.8670160921</v>
       </c>
       <c r="O18" t="n">
-        <v>153.1454994819858</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>577.2064439309263</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>777.950529182086</v>
       </c>
       <c r="O20" t="n">
-        <v>666.3374126110618</v>
+        <v>666.3374126110617</v>
       </c>
       <c r="P20" t="n">
         <v>548.3325077191142</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>199.6223786650422</v>
       </c>
       <c r="K21" t="n">
-        <v>468.7201495238858</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>678.939367911041</v>
       </c>
       <c r="M21" t="n">
-        <v>159.5787838385999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>461.7297383792225</v>
       </c>
       <c r="O21" t="n">
         <v>723.3116001450401</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>33.05318368177804</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>777.950529182086</v>
       </c>
       <c r="O23" t="n">
-        <v>666.3374126110618</v>
+        <v>666.3374126110617</v>
       </c>
       <c r="P23" t="n">
         <v>548.3325077191142</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>468.7201495238858</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>678.939367911041</v>
       </c>
       <c r="M24" t="n">
-        <v>864.5309921635478</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>895.8670160921</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>303.2050768446981</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>555.9963953322961</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>359.9471723331229</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>777.950529182086</v>
       </c>
       <c r="O26" t="n">
-        <v>666.3374126110618</v>
+        <v>666.3374126110617</v>
       </c>
       <c r="P26" t="n">
         <v>548.3325077191142</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>199.6223786650422</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>468.7201495238858</v>
       </c>
       <c r="L27" t="n">
-        <v>678.939367911041</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>661.3521170442646</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>723.3116001450401</v>
+        <v>425.0537569655908</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>577.2064439309263</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>359.9471723331229</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>33.05318368177804</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>777.950529182086</v>
       </c>
       <c r="O29" t="n">
-        <v>666.3374126110618</v>
+        <v>666.3374126110617</v>
       </c>
       <c r="P29" t="n">
         <v>548.3325077191142</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>199.6223786650422</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>468.7201495238858</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>425.0537569655908</v>
       </c>
       <c r="M30" t="n">
-        <v>864.5309921635478</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>895.8670160921</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>303.2050768446981</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>577.2064439309263</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>359.9471723331229</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>33.05318368177804</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>264.9161519253995</v>
+        <v>264.9161519253997</v>
       </c>
       <c r="K32" t="n">
         <v>555.8299021010289</v>
@@ -37083,7 +37083,7 @@
         <v>777.950529182086</v>
       </c>
       <c r="O32" t="n">
-        <v>666.3374126110618</v>
+        <v>666.3374126110617</v>
       </c>
       <c r="P32" t="n">
         <v>548.3325077191142</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>199.6223786650422</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>468.7201495238858</v>
       </c>
       <c r="L33" t="n">
-        <v>678.939367911041</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>864.5309921635478</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>487.079541343979</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>425.0537569655908</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>577.2064439309263</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>359.9471723331229</v>
       </c>
       <c r="R33" t="n">
         <v>33.05318368177804</v>
@@ -37320,7 +37320,7 @@
         <v>777.950529182086</v>
       </c>
       <c r="O35" t="n">
-        <v>666.3374126110618</v>
+        <v>666.3374126110617</v>
       </c>
       <c r="P35" t="n">
         <v>548.3325077191142</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>199.6223786650422</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>468.7201495238858</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>864.5309921635478</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>895.8670160921</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>303.2050768446981</v>
+        <v>458.1069406473688</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>577.2064439309263</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>359.9471723331229</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>777.950529182086</v>
       </c>
       <c r="O38" t="n">
-        <v>666.3374126110618</v>
+        <v>666.3374126110617</v>
       </c>
       <c r="P38" t="n">
         <v>548.3325077191142</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>199.6223786650422</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>468.7201495238858</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>425.0537569655908</v>
       </c>
       <c r="M39" t="n">
-        <v>864.5309921635478</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>895.8670160921</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>303.2050768446981</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>577.2064439309263</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>359.9471723331229</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>33.05318368177804</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>199.6223786650422</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>468.7201495238858</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>425.0537569655908</v>
       </c>
       <c r="M42" t="n">
-        <v>411.3712851814277</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>895.8670160921</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>723.3116001450401</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>577.2064439309263</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>359.9471723331229</v>
       </c>
       <c r="R42" t="n">
         <v>33.05318368177804</v>
@@ -38037,10 +38037,10 @@
         <v>548.3325077191142</v>
       </c>
       <c r="Q44" t="n">
-        <v>334.7914066510862</v>
+        <v>334.7914066510863</v>
       </c>
       <c r="R44" t="n">
-        <v>47.00797064574576</v>
+        <v>47.00797064574591</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>199.6223786650422</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>468.7201495238858</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>444.4244688632056</v>
+        <v>425.0537569655908</v>
       </c>
       <c r="N45" t="n">
-        <v>895.8670160921</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>723.3116001450401</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>577.2064439309263</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>359.9471723331229</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>33.05318368177804</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
